--- a/汽油加油加气站设计与施工规范.xlsx
+++ b/汽油加油加气站设计与施工规范.xlsx
@@ -1,10 +1,15 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <fileVersion appName="xl" lastEdited="3" lowestEdited="5" rupBuild="9302"/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr2">
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="5" rupBuild="18827"/>
   <workbookPr/>
+  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+    <mc:Choice Requires="x15">
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\workSpace\doc\"/>
+    </mc:Choice>
+  </mc:AlternateContent>
   <bookViews>
-    <workbookView windowWidth="20385" windowHeight="8520" tabRatio="756" firstSheet="1" activeTab="1"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="20388" windowHeight="8520" tabRatio="756" firstSheet="1" activeTab="2" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="structure_out" sheetId="1" r:id="rId1"/>
@@ -16,7 +21,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="126">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1026" uniqueCount="126">
   <si>
     <t>ID</t>
   </si>
@@ -399,14 +404,8 @@
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <numFmts count="4">
-    <numFmt numFmtId="42" formatCode="_ &quot;￥&quot;* #,##0_ ;_ &quot;￥&quot;* \-#,##0_ ;_ &quot;￥&quot;* &quot;-&quot;_ ;_ @_ "/>
-    <numFmt numFmtId="44" formatCode="_ &quot;￥&quot;* #,##0.00_ ;_ &quot;￥&quot;* \-#,##0.00_ ;_ &quot;￥&quot;* &quot;-&quot;??_ ;_ @_ "/>
-    <numFmt numFmtId="43" formatCode="_ * #,##0.00_ ;_ * \-#,##0.00_ ;_ * &quot;-&quot;??_ ;_ @_ "/>
-    <numFmt numFmtId="41" formatCode="_ * #,##0_ ;_ * \-#,##0_ ;_ * &quot;-&quot;_ ;_ @_ "/>
-  </numFmts>
-  <fonts count="20">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
+  <fonts count="2" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -415,151 +414,14 @@
       <scheme val="minor"/>
     </font>
     <font>
-      <sz val="11"/>
-      <color theme="1"/>
+      <sz val="9"/>
       <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="18"/>
-      <color theme="3"/>
-      <name val="宋体"/>
+      <family val="3"/>
       <charset val="134"/>
       <scheme val="minor"/>
     </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF9C0006"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color theme="0"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FFFA7D00"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="13"/>
-      <color theme="3"/>
-      <name val="宋体"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FFFF0000"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color rgb="FFFA7D00"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF006100"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color rgb="FF3F3F3F"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <u/>
-      <sz val="11"/>
-      <color rgb="FF0000FF"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <u/>
-      <sz val="11"/>
-      <color rgb="FF800080"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF3F3F76"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF9C6500"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color rgb="FFFFFFFF"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color theme="3"/>
-      <name val="宋体"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="15"/>
-      <color theme="3"/>
-      <name val="宋体"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color theme="1"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <i/>
-      <sz val="11"/>
-      <color rgb="FF7F7F7F"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
   </fonts>
-  <fills count="35">
+  <fills count="4">
     <fill>
       <patternFill patternType="none"/>
     </fill>
@@ -578,194 +440,8 @@
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFC7CE"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFF2F2F2"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFFFCC"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFC6EFCE"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFCC99"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFEB9C"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFA5A5A5"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
   </fills>
-  <borders count="11">
+  <borders count="3">
     <border>
       <left/>
       <right/>
@@ -801,251 +477,9 @@
       </bottom>
       <diagonal/>
     </border>
-    <border>
-      <left/>
-      <right/>
-      <top/>
-      <bottom style="double">
-        <color rgb="FFFF8001"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right/>
-      <top/>
-      <bottom style="medium">
-        <color theme="4"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="thin">
-        <color rgb="FF7F7F7F"/>
-      </left>
-      <right style="thin">
-        <color rgb="FF7F7F7F"/>
-      </right>
-      <top style="thin">
-        <color rgb="FF7F7F7F"/>
-      </top>
-      <bottom style="thin">
-        <color rgb="FF7F7F7F"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="thin">
-        <color rgb="FFB2B2B2"/>
-      </left>
-      <right style="thin">
-        <color rgb="FFB2B2B2"/>
-      </right>
-      <top style="thin">
-        <color rgb="FFB2B2B2"/>
-      </top>
-      <bottom style="thin">
-        <color rgb="FFB2B2B2"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="thin">
-        <color rgb="FF3F3F3F"/>
-      </left>
-      <right style="thin">
-        <color rgb="FF3F3F3F"/>
-      </right>
-      <top style="thin">
-        <color rgb="FF3F3F3F"/>
-      </top>
-      <bottom style="thin">
-        <color rgb="FF3F3F3F"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="double">
-        <color rgb="FF3F3F3F"/>
-      </left>
-      <right style="double">
-        <color rgb="FF3F3F3F"/>
-      </right>
-      <top style="double">
-        <color rgb="FF3F3F3F"/>
-      </top>
-      <bottom style="double">
-        <color rgb="FF3F3F3F"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right/>
-      <top/>
-      <bottom style="medium">
-        <color theme="4" tint="0.499984740745262"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right/>
-      <top style="thin">
-        <color theme="4"/>
-      </top>
-      <bottom style="double">
-        <color theme="4"/>
-      </bottom>
-      <diagonal/>
-    </border>
   </borders>
-  <cellStyleXfs count="49">
+  <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="42" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="22" borderId="5" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="44" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="41" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="6" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="43" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="9" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="13" borderId="6" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="16" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="19" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="17" fillId="0" borderId="4" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="4" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="16" fillId="0" borderId="9" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="12" borderId="7" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="12" borderId="5" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="15" fillId="27" borderId="8" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="5" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="3" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="18" fillId="0" borderId="10" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="34" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="33" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="4" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="7" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
@@ -1066,61 +500,17 @@
       <alignment horizontal="center" vertical="center"/>
     </xf>
   </cellXfs>
-  <cellStyles count="49">
+  <cellStyles count="1">
     <cellStyle name="常规" xfId="0" builtinId="0"/>
-    <cellStyle name="货币[0]" xfId="1" builtinId="7"/>
-    <cellStyle name="20% - 强调文字颜色 3" xfId="2" builtinId="38"/>
-    <cellStyle name="输入" xfId="3" builtinId="20"/>
-    <cellStyle name="货币" xfId="4" builtinId="4"/>
-    <cellStyle name="千位分隔[0]" xfId="5" builtinId="6"/>
-    <cellStyle name="40% - 强调文字颜色 3" xfId="6" builtinId="39"/>
-    <cellStyle name="差" xfId="7" builtinId="27"/>
-    <cellStyle name="千位分隔" xfId="8" builtinId="3"/>
-    <cellStyle name="60% - 强调文字颜色 3" xfId="9" builtinId="40"/>
-    <cellStyle name="超链接" xfId="10" builtinId="8"/>
-    <cellStyle name="百分比" xfId="11" builtinId="5"/>
-    <cellStyle name="已访问的超链接" xfId="12" builtinId="9"/>
-    <cellStyle name="注释" xfId="13" builtinId="10"/>
-    <cellStyle name="60% - 强调文字颜色 2" xfId="14" builtinId="36"/>
-    <cellStyle name="标题 4" xfId="15" builtinId="19"/>
-    <cellStyle name="警告文本" xfId="16" builtinId="11"/>
-    <cellStyle name="标题" xfId="17" builtinId="15"/>
-    <cellStyle name="解释性文本" xfId="18" builtinId="53"/>
-    <cellStyle name="标题 1" xfId="19" builtinId="16"/>
-    <cellStyle name="标题 2" xfId="20" builtinId="17"/>
-    <cellStyle name="60% - 强调文字颜色 1" xfId="21" builtinId="32"/>
-    <cellStyle name="标题 3" xfId="22" builtinId="18"/>
-    <cellStyle name="60% - 强调文字颜色 4" xfId="23" builtinId="44"/>
-    <cellStyle name="输出" xfId="24" builtinId="21"/>
-    <cellStyle name="计算" xfId="25" builtinId="22"/>
-    <cellStyle name="检查单元格" xfId="26" builtinId="23"/>
-    <cellStyle name="20% - 强调文字颜色 6" xfId="27" builtinId="50"/>
-    <cellStyle name="强调文字颜色 2" xfId="28" builtinId="33"/>
-    <cellStyle name="链接单元格" xfId="29" builtinId="24"/>
-    <cellStyle name="汇总" xfId="30" builtinId="25"/>
-    <cellStyle name="好" xfId="31" builtinId="26"/>
-    <cellStyle name="适中" xfId="32" builtinId="28"/>
-    <cellStyle name="20% - 强调文字颜色 5" xfId="33" builtinId="46"/>
-    <cellStyle name="强调文字颜色 1" xfId="34" builtinId="29"/>
-    <cellStyle name="20% - 强调文字颜色 1" xfId="35" builtinId="30"/>
-    <cellStyle name="40% - 强调文字颜色 1" xfId="36" builtinId="31"/>
-    <cellStyle name="20% - 强调文字颜色 2" xfId="37" builtinId="34"/>
-    <cellStyle name="40% - 强调文字颜色 2" xfId="38" builtinId="35"/>
-    <cellStyle name="强调文字颜色 3" xfId="39" builtinId="37"/>
-    <cellStyle name="强调文字颜色 4" xfId="40" builtinId="41"/>
-    <cellStyle name="20% - 强调文字颜色 4" xfId="41" builtinId="42"/>
-    <cellStyle name="40% - 强调文字颜色 4" xfId="42" builtinId="43"/>
-    <cellStyle name="强调文字颜色 5" xfId="43" builtinId="45"/>
-    <cellStyle name="40% - 强调文字颜色 5" xfId="44" builtinId="47"/>
-    <cellStyle name="60% - 强调文字颜色 5" xfId="45" builtinId="48"/>
-    <cellStyle name="强调文字颜色 6" xfId="46" builtinId="49"/>
-    <cellStyle name="40% - 强调文字颜色 6" xfId="47" builtinId="51"/>
-    <cellStyle name="60% - 强调文字颜色 6" xfId="48" builtinId="52"/>
   </cellStyles>
+  <dxfs count="0"/>
   <tableStyles count="0" defaultTableStyle="TableStyleMedium2" defaultPivotStyle="PivotStyleLight16"/>
   <extLst>
     <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{EB79DEF2-80B8-43e5-95BD-54CBDDF9020C}">
       <x14:slicerStyles defaultSlicerStyle="SlicerStyleLight1"/>
+    </ext>
+    <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{9260A510-F301-46a8-8635-F512D64BE5F5}">
+      <x15:timelineStyles defaultTimelineStyle="TimeSlicerStyleLight1"/>
     </ext>
   </extLst>
 </styleSheet>
@@ -1407,30 +797,30 @@
     </a:fmtScheme>
   </a:themeElements>
   <a:objectDefaults/>
+  <a:extraClrSchemeLst/>
 </a:theme>
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData">
-  <sheetPr/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:G33"/>
   <sheetViews>
     <sheetView topLeftCell="A4" workbookViewId="0">
       <selection activeCell="B30" sqref="B30"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="9" defaultRowHeight="13.5" outlineLevelCol="6"/>
+  <sheetFormatPr defaultColWidth="9" defaultRowHeight="14.4" x14ac:dyDescent="0.25"/>
   <cols>
     <col min="1" max="1" width="19" customWidth="1"/>
-    <col min="2" max="2" width="48.375" customWidth="1"/>
-    <col min="3" max="3" width="37.5" customWidth="1"/>
-    <col min="4" max="5" width="26.75" customWidth="1"/>
-    <col min="6" max="6" width="19.75" customWidth="1"/>
-    <col min="7" max="7" width="17.25" customWidth="1"/>
-    <col min="8" max="8" width="12.25" customWidth="1"/>
+    <col min="2" max="2" width="48.33203125" customWidth="1"/>
+    <col min="3" max="3" width="37.44140625" customWidth="1"/>
+    <col min="4" max="5" width="26.77734375" customWidth="1"/>
+    <col min="6" max="6" width="19.77734375" customWidth="1"/>
+    <col min="7" max="7" width="17.21875" customWidth="1"/>
+    <col min="8" max="8" width="12.21875" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:7">
+    <row r="1" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A1" t="s">
         <v>0</v>
       </c>
@@ -1453,7 +843,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="2" spans="1:7">
+    <row r="2" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A2" t="s">
         <v>7</v>
       </c>
@@ -1476,7 +866,7 @@
         <v>13</v>
       </c>
     </row>
-    <row r="3" spans="1:7">
+    <row r="3" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A3">
         <v>1</v>
       </c>
@@ -1499,7 +889,7 @@
         <v>17</v>
       </c>
     </row>
-    <row r="4" spans="1:7">
+    <row r="4" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A4">
         <v>2</v>
       </c>
@@ -1522,7 +912,7 @@
         <v>17</v>
       </c>
     </row>
-    <row r="5" spans="1:7">
+    <row r="5" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A5">
         <v>3</v>
       </c>
@@ -1545,7 +935,7 @@
         <v>17</v>
       </c>
     </row>
-    <row r="6" spans="1:7">
+    <row r="6" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A6">
         <v>4</v>
       </c>
@@ -1568,7 +958,7 @@
         <v>17</v>
       </c>
     </row>
-    <row r="7" spans="1:7">
+    <row r="7" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A7">
         <v>5</v>
       </c>
@@ -1591,7 +981,7 @@
         <v>17</v>
       </c>
     </row>
-    <row r="8" spans="1:7">
+    <row r="8" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A8">
         <v>6</v>
       </c>
@@ -1614,7 +1004,7 @@
         <v>17</v>
       </c>
     </row>
-    <row r="9" spans="1:7">
+    <row r="9" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A9">
         <v>7</v>
       </c>
@@ -1637,7 +1027,7 @@
         <v>17</v>
       </c>
     </row>
-    <row r="10" spans="1:7">
+    <row r="10" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A10">
         <v>8</v>
       </c>
@@ -1660,7 +1050,7 @@
         <v>17</v>
       </c>
     </row>
-    <row r="11" spans="1:7">
+    <row r="11" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A11">
         <v>9</v>
       </c>
@@ -1683,7 +1073,7 @@
         <v>17</v>
       </c>
     </row>
-    <row r="12" spans="1:7">
+    <row r="12" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A12">
         <v>10</v>
       </c>
@@ -1706,7 +1096,7 @@
         <v>17</v>
       </c>
     </row>
-    <row r="13" spans="1:7">
+    <row r="13" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A13">
         <v>11</v>
       </c>
@@ -1729,7 +1119,7 @@
         <v>17</v>
       </c>
     </row>
-    <row r="14" spans="1:7">
+    <row r="14" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A14">
         <v>12</v>
       </c>
@@ -1752,7 +1142,7 @@
         <v>17</v>
       </c>
     </row>
-    <row r="15" spans="1:7">
+    <row r="15" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A15">
         <v>13</v>
       </c>
@@ -1775,7 +1165,7 @@
         <v>17</v>
       </c>
     </row>
-    <row r="16" spans="1:7">
+    <row r="16" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A16">
         <v>14</v>
       </c>
@@ -1798,7 +1188,7 @@
         <v>17</v>
       </c>
     </row>
-    <row r="17" spans="1:7">
+    <row r="17" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A17">
         <v>15</v>
       </c>
@@ -1821,7 +1211,7 @@
         <v>17</v>
       </c>
     </row>
-    <row r="18" spans="1:7">
+    <row r="18" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A18">
         <v>16</v>
       </c>
@@ -1844,7 +1234,7 @@
         <v>17</v>
       </c>
     </row>
-    <row r="19" spans="1:7">
+    <row r="19" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A19">
         <v>17</v>
       </c>
@@ -1867,7 +1257,7 @@
         <v>17</v>
       </c>
     </row>
-    <row r="20" spans="1:7">
+    <row r="20" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A20">
         <v>18</v>
       </c>
@@ -1890,7 +1280,7 @@
         <v>17</v>
       </c>
     </row>
-    <row r="21" spans="1:7">
+    <row r="21" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A21">
         <v>19</v>
       </c>
@@ -1913,7 +1303,7 @@
         <v>17</v>
       </c>
     </row>
-    <row r="22" spans="1:7">
+    <row r="22" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A22">
         <v>20</v>
       </c>
@@ -1936,7 +1326,7 @@
         <v>17</v>
       </c>
     </row>
-    <row r="23" spans="1:7">
+    <row r="23" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A23">
         <v>21</v>
       </c>
@@ -1959,7 +1349,7 @@
         <v>17</v>
       </c>
     </row>
-    <row r="24" spans="1:7">
+    <row r="24" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A24">
         <v>22</v>
       </c>
@@ -1982,7 +1372,7 @@
         <v>17</v>
       </c>
     </row>
-    <row r="25" spans="1:7">
+    <row r="25" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A25">
         <v>23</v>
       </c>
@@ -2005,7 +1395,7 @@
         <v>17</v>
       </c>
     </row>
-    <row r="26" spans="1:7">
+    <row r="26" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A26">
         <v>24</v>
       </c>
@@ -2028,7 +1418,7 @@
         <v>17</v>
       </c>
     </row>
-    <row r="27" spans="1:7">
+    <row r="27" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A27">
         <v>25</v>
       </c>
@@ -2051,7 +1441,7 @@
         <v>17</v>
       </c>
     </row>
-    <row r="28" spans="1:7">
+    <row r="28" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A28">
         <v>26</v>
       </c>
@@ -2074,7 +1464,7 @@
         <v>17</v>
       </c>
     </row>
-    <row r="29" spans="1:7">
+    <row r="29" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A29">
         <v>27</v>
       </c>
@@ -2097,7 +1487,7 @@
         <v>17</v>
       </c>
     </row>
-    <row r="30" spans="1:7">
+    <row r="30" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A30">
         <v>28</v>
       </c>
@@ -2120,7 +1510,7 @@
         <v>17</v>
       </c>
     </row>
-    <row r="31" spans="1:7">
+    <row r="31" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A31">
         <v>29</v>
       </c>
@@ -2143,7 +1533,7 @@
         <v>17</v>
       </c>
     </row>
-    <row r="32" spans="1:7">
+    <row r="32" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A32">
         <v>30</v>
       </c>
@@ -2166,7 +1556,7 @@
         <v>17</v>
       </c>
     </row>
-    <row r="33" spans="1:7">
+    <row r="33" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A33">
         <v>31</v>
       </c>
@@ -2190,34 +1580,33 @@
       </c>
     </row>
   </sheetData>
-  <pageMargins left="0.699305555555556" right="0.699305555555556" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <phoneticPr fontId="1" type="noConversion"/>
+  <pageMargins left="0.69930555555555596" right="0.69930555555555596" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" orientation="portrait"/>
-  <headerFooter/>
 </worksheet>
 </file>
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData">
-  <sheetPr/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0100-000000000000}">
   <dimension ref="A1:G467"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
+    <sheetView workbookViewId="0">
       <selection activeCell="E5" sqref="E5"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="9" defaultRowHeight="13.5" outlineLevelCol="6"/>
+  <sheetFormatPr defaultColWidth="9" defaultRowHeight="14.4" x14ac:dyDescent="0.25"/>
   <cols>
     <col min="1" max="1" width="9" style="1"/>
-    <col min="2" max="2" width="20.625" style="1" customWidth="1"/>
-    <col min="3" max="3" width="17.375" style="1" customWidth="1"/>
-    <col min="4" max="4" width="22.9333333333333" style="1" customWidth="1"/>
-    <col min="5" max="5" width="43.5333333333333" style="1" customWidth="1"/>
-    <col min="6" max="6" width="16.025" style="1" customWidth="1"/>
-    <col min="7" max="7" width="12.9416666666667" style="1" customWidth="1"/>
+    <col min="2" max="2" width="20.6640625" style="1" customWidth="1"/>
+    <col min="3" max="3" width="17.33203125" style="1" customWidth="1"/>
+    <col min="4" max="4" width="22.88671875" style="1" customWidth="1"/>
+    <col min="5" max="5" width="43.5546875" style="1" customWidth="1"/>
+    <col min="6" max="6" width="16" style="1" customWidth="1"/>
+    <col min="7" max="7" width="12.88671875" style="1" customWidth="1"/>
     <col min="8" max="16384" width="9" style="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="2:6">
+    <row r="1" spans="1:7" x14ac:dyDescent="0.25">
       <c r="B1" s="1" t="s">
         <v>50</v>
       </c>
@@ -2234,7 +1623,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="2" spans="1:7">
+    <row r="2" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A2" s="1" t="s">
         <v>54</v>
       </c>
@@ -2257,357 +1646,357 @@
         <v>58</v>
       </c>
     </row>
-    <row r="3" spans="1:1">
+    <row r="3" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A3" s="1">
         <v>1</v>
       </c>
     </row>
-    <row r="4" spans="1:1">
+    <row r="4" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A4" s="1">
         <v>2</v>
       </c>
     </row>
-    <row r="5" spans="1:1">
+    <row r="5" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A5" s="1">
         <v>3</v>
       </c>
     </row>
-    <row r="6" spans="1:1">
+    <row r="6" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A6" s="1">
         <v>4</v>
       </c>
     </row>
-    <row r="7" spans="1:1">
+    <row r="7" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A7" s="1">
         <v>5</v>
       </c>
     </row>
-    <row r="8" spans="1:1">
+    <row r="8" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A8" s="1">
         <v>6</v>
       </c>
     </row>
-    <row r="9" spans="1:1">
+    <row r="9" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A9" s="1">
         <v>7</v>
       </c>
     </row>
-    <row r="10" spans="1:1">
+    <row r="10" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A10" s="1">
         <v>8</v>
       </c>
     </row>
-    <row r="11" spans="1:1">
+    <row r="11" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A11" s="1">
         <v>9</v>
       </c>
     </row>
-    <row r="12" spans="1:1">
+    <row r="12" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A12" s="1">
         <v>10</v>
       </c>
     </row>
-    <row r="13" spans="1:1">
+    <row r="13" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A13" s="1">
         <v>11</v>
       </c>
     </row>
-    <row r="14" spans="1:1">
+    <row r="14" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A14" s="1">
         <v>12</v>
       </c>
     </row>
-    <row r="15" spans="1:1">
+    <row r="15" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A15" s="1">
         <v>13</v>
       </c>
     </row>
-    <row r="16" spans="1:1">
+    <row r="16" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A16" s="1">
         <v>14</v>
       </c>
     </row>
-    <row r="17" spans="1:1">
+    <row r="17" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A17" s="1">
         <v>15</v>
       </c>
     </row>
-    <row r="18" spans="1:1">
+    <row r="18" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A18" s="1">
         <v>16</v>
       </c>
     </row>
-    <row r="19" spans="1:1">
+    <row r="19" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A19" s="1">
         <v>17</v>
       </c>
     </row>
-    <row r="20" spans="1:1">
+    <row r="20" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A20" s="1">
         <v>18</v>
       </c>
     </row>
-    <row r="21" spans="1:1">
+    <row r="21" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A21" s="1">
         <v>19</v>
       </c>
     </row>
-    <row r="22" spans="1:1">
+    <row r="22" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A22" s="1">
         <v>20</v>
       </c>
     </row>
-    <row r="23" spans="1:1">
+    <row r="23" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A23" s="1">
         <v>21</v>
       </c>
     </row>
-    <row r="24" spans="1:1">
+    <row r="24" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A24" s="1">
         <v>22</v>
       </c>
     </row>
-    <row r="25" spans="1:1">
+    <row r="25" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A25" s="1">
         <v>23</v>
       </c>
     </row>
-    <row r="26" spans="1:1">
+    <row r="26" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A26" s="1">
         <v>24</v>
       </c>
     </row>
-    <row r="27" spans="1:1">
+    <row r="27" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A27" s="1">
         <v>25</v>
       </c>
     </row>
-    <row r="28" spans="1:1">
+    <row r="28" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A28" s="1">
         <v>26</v>
       </c>
     </row>
-    <row r="29" spans="1:1">
+    <row r="29" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A29" s="1">
         <v>27</v>
       </c>
     </row>
-    <row r="30" spans="1:1">
+    <row r="30" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A30" s="1">
         <v>28</v>
       </c>
     </row>
-    <row r="31" spans="1:1">
+    <row r="31" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A31" s="1">
         <v>29</v>
       </c>
     </row>
-    <row r="32" spans="1:1">
+    <row r="32" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A32" s="1">
         <v>30</v>
       </c>
     </row>
-    <row r="33" spans="1:1">
+    <row r="33" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A33" s="1">
         <v>31</v>
       </c>
     </row>
-    <row r="34" spans="1:1">
+    <row r="34" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A34" s="1">
         <v>32</v>
       </c>
     </row>
-    <row r="35" spans="1:1">
+    <row r="35" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A35" s="1">
         <v>33</v>
       </c>
     </row>
-    <row r="36" spans="1:1">
+    <row r="36" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A36" s="1">
         <v>34</v>
       </c>
     </row>
-    <row r="37" spans="1:1">
+    <row r="37" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A37" s="1">
         <v>35</v>
       </c>
     </row>
-    <row r="38" spans="1:1">
+    <row r="38" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A38" s="1">
         <v>36</v>
       </c>
     </row>
-    <row r="39" spans="1:1">
+    <row r="39" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A39" s="1">
         <v>37</v>
       </c>
     </row>
-    <row r="40" spans="1:1">
+    <row r="40" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A40" s="1">
         <v>38</v>
       </c>
     </row>
-    <row r="41" spans="1:1">
+    <row r="41" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A41" s="1">
         <v>39</v>
       </c>
     </row>
-    <row r="42" spans="1:1">
+    <row r="42" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A42" s="1">
         <v>40</v>
       </c>
     </row>
-    <row r="43" spans="1:1">
+    <row r="43" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A43" s="1">
         <v>41</v>
       </c>
     </row>
-    <row r="44" spans="1:1">
+    <row r="44" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A44" s="1">
         <v>42</v>
       </c>
     </row>
-    <row r="45" spans="1:1">
+    <row r="45" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A45" s="1">
         <v>43</v>
       </c>
     </row>
-    <row r="46" spans="1:1">
+    <row r="46" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A46" s="1">
         <v>44</v>
       </c>
     </row>
-    <row r="47" spans="1:1">
+    <row r="47" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A47" s="1">
         <v>45</v>
       </c>
     </row>
-    <row r="48" spans="1:1">
+    <row r="48" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A48" s="1">
         <v>46</v>
       </c>
     </row>
-    <row r="49" spans="1:1">
+    <row r="49" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A49" s="1">
         <v>47</v>
       </c>
     </row>
-    <row r="50" spans="1:1">
+    <row r="50" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A50" s="1">
         <v>48</v>
       </c>
     </row>
-    <row r="51" spans="1:1">
+    <row r="51" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A51" s="1">
         <v>49</v>
       </c>
     </row>
-    <row r="52" spans="1:1">
+    <row r="52" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A52" s="1">
         <v>50</v>
       </c>
     </row>
-    <row r="53" spans="1:1">
+    <row r="53" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A53" s="1">
         <v>51</v>
       </c>
     </row>
-    <row r="54" spans="1:1">
+    <row r="54" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A54" s="1">
         <v>52</v>
       </c>
     </row>
-    <row r="55" spans="1:1">
+    <row r="55" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A55" s="1">
         <v>53</v>
       </c>
     </row>
-    <row r="56" spans="1:1">
+    <row r="56" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A56" s="1">
         <v>54</v>
       </c>
     </row>
-    <row r="57" spans="1:1">
+    <row r="57" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A57" s="1">
         <v>55</v>
       </c>
     </row>
-    <row r="58" spans="1:1">
+    <row r="58" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A58" s="1">
         <v>56</v>
       </c>
     </row>
-    <row r="59" spans="1:1">
+    <row r="59" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A59" s="1">
         <v>57</v>
       </c>
     </row>
-    <row r="60" spans="1:1">
+    <row r="60" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A60" s="1">
         <v>58</v>
       </c>
     </row>
-    <row r="61" spans="1:1">
+    <row r="61" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A61" s="1">
         <v>59</v>
       </c>
     </row>
-    <row r="62" spans="1:1">
+    <row r="62" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A62" s="1">
         <v>60</v>
       </c>
     </row>
-    <row r="63" spans="1:1">
+    <row r="63" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A63" s="1">
         <v>61</v>
       </c>
     </row>
-    <row r="64" spans="1:1">
+    <row r="64" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A64" s="1">
         <v>62</v>
       </c>
     </row>
-    <row r="65" spans="1:1">
+    <row r="65" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A65" s="1">
         <v>63</v>
       </c>
     </row>
-    <row r="66" spans="1:1">
+    <row r="66" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A66" s="1">
         <v>64</v>
       </c>
     </row>
-    <row r="67" spans="1:1">
+    <row r="67" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A67" s="1">
         <v>65</v>
       </c>
     </row>
-    <row r="68" spans="1:1">
+    <row r="68" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A68" s="1">
         <v>66</v>
       </c>
     </row>
-    <row r="69" spans="1:1">
+    <row r="69" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A69" s="1">
         <v>67</v>
       </c>
     </row>
-    <row r="70" spans="1:1">
+    <row r="70" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A70" s="1">
         <v>68</v>
       </c>
     </row>
-    <row r="71" spans="1:1">
+    <row r="71" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A71" s="1">
         <v>69</v>
       </c>
     </row>
-    <row r="72" spans="1:1">
+    <row r="72" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A72" s="1">
         <v>70</v>
       </c>
     </row>
-    <row r="73" spans="1:7">
+    <row r="73" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A73" s="1">
         <v>71</v>
       </c>
@@ -2615,7 +2004,7 @@
       <c r="F73" s="3"/>
       <c r="G73" s="3"/>
     </row>
-    <row r="74" spans="1:7">
+    <row r="74" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A74" s="1">
         <v>72</v>
       </c>
@@ -2623,7 +2012,7 @@
       <c r="F74" s="3"/>
       <c r="G74" s="3"/>
     </row>
-    <row r="75" spans="1:7">
+    <row r="75" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A75" s="1">
         <v>73</v>
       </c>
@@ -2631,7 +2020,7 @@
       <c r="F75" s="3"/>
       <c r="G75" s="3"/>
     </row>
-    <row r="76" spans="1:7">
+    <row r="76" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A76" s="1">
         <v>74</v>
       </c>
@@ -2639,7 +2028,7 @@
       <c r="F76" s="3"/>
       <c r="G76" s="3"/>
     </row>
-    <row r="77" spans="1:7">
+    <row r="77" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A77" s="1">
         <v>75</v>
       </c>
@@ -2647,7 +2036,7 @@
       <c r="F77" s="3"/>
       <c r="G77" s="3"/>
     </row>
-    <row r="78" spans="1:7">
+    <row r="78" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A78" s="1">
         <v>76</v>
       </c>
@@ -2655,7 +2044,7 @@
       <c r="F78" s="3"/>
       <c r="G78" s="3"/>
     </row>
-    <row r="79" spans="1:7">
+    <row r="79" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A79" s="1">
         <v>77</v>
       </c>
@@ -2663,7 +2052,7 @@
       <c r="F79" s="3"/>
       <c r="G79" s="3"/>
     </row>
-    <row r="80" spans="1:7">
+    <row r="80" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A80" s="1">
         <v>78</v>
       </c>
@@ -2671,7 +2060,7 @@
       <c r="F80" s="3"/>
       <c r="G80" s="3"/>
     </row>
-    <row r="81" spans="1:7">
+    <row r="81" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A81" s="1">
         <v>79</v>
       </c>
@@ -2679,7 +2068,7 @@
       <c r="F81" s="3"/>
       <c r="G81" s="3"/>
     </row>
-    <row r="82" spans="1:7">
+    <row r="82" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A82" s="1">
         <v>80</v>
       </c>
@@ -2687,7 +2076,7 @@
       <c r="F82" s="3"/>
       <c r="G82" s="3"/>
     </row>
-    <row r="83" spans="1:7">
+    <row r="83" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A83" s="1">
         <v>81</v>
       </c>
@@ -2695,7 +2084,7 @@
       <c r="F83" s="3"/>
       <c r="G83" s="3"/>
     </row>
-    <row r="84" spans="1:7">
+    <row r="84" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A84" s="1">
         <v>82</v>
       </c>
@@ -2703,7 +2092,7 @@
       <c r="F84" s="3"/>
       <c r="G84" s="3"/>
     </row>
-    <row r="85" spans="1:7">
+    <row r="85" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A85" s="1">
         <v>83</v>
       </c>
@@ -2711,7 +2100,7 @@
       <c r="F85" s="3"/>
       <c r="G85" s="3"/>
     </row>
-    <row r="86" spans="1:7">
+    <row r="86" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A86" s="1">
         <v>84</v>
       </c>
@@ -2719,7 +2108,7 @@
       <c r="F86" s="3"/>
       <c r="G86" s="3"/>
     </row>
-    <row r="87" spans="1:7">
+    <row r="87" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A87" s="1">
         <v>85</v>
       </c>
@@ -2727,7 +2116,7 @@
       <c r="F87" s="3"/>
       <c r="G87" s="3"/>
     </row>
-    <row r="88" spans="1:7">
+    <row r="88" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A88" s="1">
         <v>86</v>
       </c>
@@ -2735,7 +2124,7 @@
       <c r="F88" s="3"/>
       <c r="G88" s="3"/>
     </row>
-    <row r="89" spans="1:7">
+    <row r="89" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A89" s="1">
         <v>87</v>
       </c>
@@ -2743,7 +2132,7 @@
       <c r="F89" s="3"/>
       <c r="G89" s="3"/>
     </row>
-    <row r="90" spans="1:7">
+    <row r="90" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A90" s="1">
         <v>88</v>
       </c>
@@ -2751,7 +2140,7 @@
       <c r="F90" s="3"/>
       <c r="G90" s="3"/>
     </row>
-    <row r="91" spans="1:7">
+    <row r="91" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A91" s="1">
         <v>89</v>
       </c>
@@ -2759,7 +2148,7 @@
       <c r="F91" s="3"/>
       <c r="G91" s="3"/>
     </row>
-    <row r="92" spans="1:7">
+    <row r="92" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A92" s="1">
         <v>90</v>
       </c>
@@ -2767,7 +2156,7 @@
       <c r="F92" s="3"/>
       <c r="G92" s="3"/>
     </row>
-    <row r="93" spans="1:7">
+    <row r="93" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A93" s="1">
         <v>91</v>
       </c>
@@ -2775,7 +2164,7 @@
       <c r="F93" s="3"/>
       <c r="G93" s="3"/>
     </row>
-    <row r="94" spans="1:7">
+    <row r="94" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A94" s="1">
         <v>92</v>
       </c>
@@ -2783,7 +2172,7 @@
       <c r="F94" s="3"/>
       <c r="G94" s="3"/>
     </row>
-    <row r="95" spans="1:7">
+    <row r="95" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A95" s="1">
         <v>93</v>
       </c>
@@ -2791,7 +2180,7 @@
       <c r="F95" s="3"/>
       <c r="G95" s="3"/>
     </row>
-    <row r="96" spans="1:7">
+    <row r="96" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A96" s="1">
         <v>94</v>
       </c>
@@ -2799,7 +2188,7 @@
       <c r="F96" s="3"/>
       <c r="G96" s="3"/>
     </row>
-    <row r="97" spans="1:7">
+    <row r="97" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A97" s="1">
         <v>95</v>
       </c>
@@ -2807,7 +2196,7 @@
       <c r="F97" s="3"/>
       <c r="G97" s="3"/>
     </row>
-    <row r="98" spans="1:7">
+    <row r="98" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A98" s="1">
         <v>96</v>
       </c>
@@ -2815,7 +2204,7 @@
       <c r="F98" s="3"/>
       <c r="G98" s="3"/>
     </row>
-    <row r="99" spans="1:7">
+    <row r="99" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A99" s="1">
         <v>97</v>
       </c>
@@ -2823,7 +2212,7 @@
       <c r="F99" s="3"/>
       <c r="G99" s="3"/>
     </row>
-    <row r="100" spans="1:7">
+    <row r="100" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A100" s="1">
         <v>98</v>
       </c>
@@ -2831,7 +2220,7 @@
       <c r="F100" s="3"/>
       <c r="G100" s="3"/>
     </row>
-    <row r="101" spans="1:7">
+    <row r="101" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A101" s="1">
         <v>99</v>
       </c>
@@ -2839,7 +2228,7 @@
       <c r="F101" s="3"/>
       <c r="G101" s="3"/>
     </row>
-    <row r="102" spans="1:7">
+    <row r="102" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A102" s="1">
         <v>100</v>
       </c>
@@ -2847,7 +2236,7 @@
       <c r="F102" s="3"/>
       <c r="G102" s="3"/>
     </row>
-    <row r="103" spans="1:7">
+    <row r="103" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A103" s="1">
         <v>101</v>
       </c>
@@ -2855,7 +2244,7 @@
       <c r="F103" s="3"/>
       <c r="G103" s="3"/>
     </row>
-    <row r="104" spans="1:7">
+    <row r="104" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A104" s="1">
         <v>102</v>
       </c>
@@ -2863,7 +2252,7 @@
       <c r="F104" s="3"/>
       <c r="G104" s="3"/>
     </row>
-    <row r="105" spans="1:7">
+    <row r="105" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A105" s="1">
         <v>103</v>
       </c>
@@ -2871,7 +2260,7 @@
       <c r="F105" s="3"/>
       <c r="G105" s="3"/>
     </row>
-    <row r="106" spans="1:7">
+    <row r="106" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A106" s="1">
         <v>104</v>
       </c>
@@ -2879,7 +2268,7 @@
       <c r="F106" s="3"/>
       <c r="G106" s="3"/>
     </row>
-    <row r="107" spans="1:7">
+    <row r="107" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A107" s="1">
         <v>105</v>
       </c>
@@ -2887,7 +2276,7 @@
       <c r="F107" s="3"/>
       <c r="G107" s="3"/>
     </row>
-    <row r="108" spans="1:7">
+    <row r="108" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A108" s="1">
         <v>106</v>
       </c>
@@ -2895,7 +2284,7 @@
       <c r="F108" s="3"/>
       <c r="G108" s="3"/>
     </row>
-    <row r="109" spans="1:7">
+    <row r="109" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A109" s="1">
         <v>107</v>
       </c>
@@ -2903,7 +2292,7 @@
       <c r="F109" s="3"/>
       <c r="G109" s="3"/>
     </row>
-    <row r="110" spans="1:7">
+    <row r="110" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A110" s="1">
         <v>108</v>
       </c>
@@ -2911,7 +2300,7 @@
       <c r="F110" s="3"/>
       <c r="G110" s="3"/>
     </row>
-    <row r="111" spans="1:7">
+    <row r="111" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A111" s="1">
         <v>109</v>
       </c>
@@ -2919,7 +2308,7 @@
       <c r="F111" s="3"/>
       <c r="G111" s="3"/>
     </row>
-    <row r="112" spans="1:7">
+    <row r="112" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A112" s="1">
         <v>110</v>
       </c>
@@ -2927,7 +2316,7 @@
       <c r="F112" s="3"/>
       <c r="G112" s="3"/>
     </row>
-    <row r="113" spans="1:7">
+    <row r="113" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A113" s="1">
         <v>111</v>
       </c>
@@ -2935,7 +2324,7 @@
       <c r="F113" s="3"/>
       <c r="G113" s="3"/>
     </row>
-    <row r="114" spans="1:7">
+    <row r="114" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A114" s="1">
         <v>112</v>
       </c>
@@ -2943,7 +2332,7 @@
       <c r="F114" s="3"/>
       <c r="G114" s="3"/>
     </row>
-    <row r="115" spans="1:7">
+    <row r="115" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A115" s="1">
         <v>113</v>
       </c>
@@ -2951,7 +2340,7 @@
       <c r="F115" s="3"/>
       <c r="G115" s="3"/>
     </row>
-    <row r="116" spans="1:7">
+    <row r="116" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A116" s="1">
         <v>114</v>
       </c>
@@ -2959,7 +2348,7 @@
       <c r="F116" s="3"/>
       <c r="G116" s="3"/>
     </row>
-    <row r="117" spans="1:7">
+    <row r="117" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A117" s="1">
         <v>115</v>
       </c>
@@ -2967,7 +2356,7 @@
       <c r="F117" s="3"/>
       <c r="G117" s="3"/>
     </row>
-    <row r="118" spans="1:7">
+    <row r="118" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A118" s="1">
         <v>116</v>
       </c>
@@ -2975,7 +2364,7 @@
       <c r="F118" s="3"/>
       <c r="G118" s="3"/>
     </row>
-    <row r="119" spans="1:7">
+    <row r="119" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A119" s="1">
         <v>117</v>
       </c>
@@ -2983,7 +2372,7 @@
       <c r="F119" s="3"/>
       <c r="G119" s="3"/>
     </row>
-    <row r="120" spans="1:7">
+    <row r="120" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A120" s="1">
         <v>118</v>
       </c>
@@ -2991,7 +2380,7 @@
       <c r="F120" s="3"/>
       <c r="G120" s="3"/>
     </row>
-    <row r="121" spans="1:7">
+    <row r="121" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A121" s="1">
         <v>119</v>
       </c>
@@ -2999,7 +2388,7 @@
       <c r="F121" s="3"/>
       <c r="G121" s="3"/>
     </row>
-    <row r="122" spans="1:7">
+    <row r="122" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A122" s="1">
         <v>120</v>
       </c>
@@ -3007,7 +2396,7 @@
       <c r="F122" s="3"/>
       <c r="G122" s="3"/>
     </row>
-    <row r="123" spans="1:7">
+    <row r="123" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A123" s="1">
         <v>121</v>
       </c>
@@ -3015,7 +2404,7 @@
       <c r="F123" s="3"/>
       <c r="G123" s="3"/>
     </row>
-    <row r="124" spans="1:7">
+    <row r="124" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A124" s="1">
         <v>122</v>
       </c>
@@ -3023,7 +2412,7 @@
       <c r="F124" s="3"/>
       <c r="G124" s="3"/>
     </row>
-    <row r="125" spans="1:7">
+    <row r="125" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A125" s="1">
         <v>123</v>
       </c>
@@ -3031,7 +2420,7 @@
       <c r="F125" s="3"/>
       <c r="G125" s="3"/>
     </row>
-    <row r="126" spans="1:7">
+    <row r="126" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A126" s="1">
         <v>124</v>
       </c>
@@ -3039,7 +2428,7 @@
       <c r="F126" s="3"/>
       <c r="G126" s="3"/>
     </row>
-    <row r="127" spans="1:7">
+    <row r="127" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A127" s="1">
         <v>125</v>
       </c>
@@ -3047,7 +2436,7 @@
       <c r="F127" s="3"/>
       <c r="G127" s="3"/>
     </row>
-    <row r="128" spans="1:7">
+    <row r="128" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A128" s="1">
         <v>126</v>
       </c>
@@ -3055,7 +2444,7 @@
       <c r="F128" s="3"/>
       <c r="G128" s="3"/>
     </row>
-    <row r="129" spans="1:7">
+    <row r="129" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A129" s="1">
         <v>127</v>
       </c>
@@ -3063,7 +2452,7 @@
       <c r="F129" s="3"/>
       <c r="G129" s="3"/>
     </row>
-    <row r="130" spans="1:7">
+    <row r="130" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A130" s="1">
         <v>128</v>
       </c>
@@ -3071,7 +2460,7 @@
       <c r="F130" s="3"/>
       <c r="G130" s="3"/>
     </row>
-    <row r="131" spans="1:7">
+    <row r="131" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A131" s="1">
         <v>129</v>
       </c>
@@ -3079,7 +2468,7 @@
       <c r="F131" s="3"/>
       <c r="G131" s="3"/>
     </row>
-    <row r="132" spans="1:7">
+    <row r="132" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A132" s="1">
         <v>130</v>
       </c>
@@ -3087,7 +2476,7 @@
       <c r="F132" s="3"/>
       <c r="G132" s="3"/>
     </row>
-    <row r="133" spans="1:7">
+    <row r="133" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A133" s="1">
         <v>131</v>
       </c>
@@ -3095,7 +2484,7 @@
       <c r="F133" s="3"/>
       <c r="G133" s="3"/>
     </row>
-    <row r="134" spans="1:7">
+    <row r="134" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A134" s="1">
         <v>132</v>
       </c>
@@ -3103,7 +2492,7 @@
       <c r="F134" s="3"/>
       <c r="G134" s="3"/>
     </row>
-    <row r="135" spans="1:7">
+    <row r="135" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A135" s="1">
         <v>133</v>
       </c>
@@ -3111,7 +2500,7 @@
       <c r="F135" s="3"/>
       <c r="G135" s="3"/>
     </row>
-    <row r="136" spans="1:7">
+    <row r="136" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A136" s="1">
         <v>134</v>
       </c>
@@ -3119,7 +2508,7 @@
       <c r="F136" s="3"/>
       <c r="G136" s="3"/>
     </row>
-    <row r="137" spans="1:7">
+    <row r="137" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A137" s="1">
         <v>135</v>
       </c>
@@ -3127,7 +2516,7 @@
       <c r="F137" s="3"/>
       <c r="G137" s="3"/>
     </row>
-    <row r="138" spans="1:7">
+    <row r="138" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A138" s="1">
         <v>136</v>
       </c>
@@ -3135,7 +2524,7 @@
       <c r="F138" s="3"/>
       <c r="G138" s="3"/>
     </row>
-    <row r="139" spans="1:7">
+    <row r="139" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A139" s="1">
         <v>137</v>
       </c>
@@ -3143,7 +2532,7 @@
       <c r="F139" s="3"/>
       <c r="G139" s="3"/>
     </row>
-    <row r="140" spans="1:7">
+    <row r="140" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A140" s="1">
         <v>138</v>
       </c>
@@ -3151,7 +2540,7 @@
       <c r="F140" s="3"/>
       <c r="G140" s="3"/>
     </row>
-    <row r="141" spans="1:7">
+    <row r="141" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A141" s="1">
         <v>139</v>
       </c>
@@ -3159,7 +2548,7 @@
       <c r="F141" s="3"/>
       <c r="G141" s="3"/>
     </row>
-    <row r="142" spans="1:7">
+    <row r="142" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A142" s="1">
         <v>140</v>
       </c>
@@ -3167,7 +2556,7 @@
       <c r="F142" s="3"/>
       <c r="G142" s="3"/>
     </row>
-    <row r="143" spans="1:7">
+    <row r="143" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A143" s="1">
         <v>141</v>
       </c>
@@ -3175,7 +2564,7 @@
       <c r="F143" s="3"/>
       <c r="G143" s="3"/>
     </row>
-    <row r="144" spans="1:7">
+    <row r="144" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A144" s="1">
         <v>142</v>
       </c>
@@ -3183,7 +2572,7 @@
       <c r="F144" s="3"/>
       <c r="G144" s="3"/>
     </row>
-    <row r="145" spans="1:7">
+    <row r="145" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A145" s="1">
         <v>143</v>
       </c>
@@ -3191,7 +2580,7 @@
       <c r="F145" s="3"/>
       <c r="G145" s="3"/>
     </row>
-    <row r="146" spans="1:7">
+    <row r="146" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A146" s="1">
         <v>144</v>
       </c>
@@ -3199,7 +2588,7 @@
       <c r="F146" s="3"/>
       <c r="G146" s="3"/>
     </row>
-    <row r="147" spans="1:7">
+    <row r="147" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A147" s="1">
         <v>145</v>
       </c>
@@ -3207,7 +2596,7 @@
       <c r="F147" s="3"/>
       <c r="G147" s="3"/>
     </row>
-    <row r="148" spans="1:7">
+    <row r="148" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A148" s="1">
         <v>146</v>
       </c>
@@ -3215,7 +2604,7 @@
       <c r="F148" s="3"/>
       <c r="G148" s="3"/>
     </row>
-    <row r="149" spans="1:7">
+    <row r="149" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A149" s="1">
         <v>147</v>
       </c>
@@ -3223,7 +2612,7 @@
       <c r="F149" s="3"/>
       <c r="G149" s="3"/>
     </row>
-    <row r="150" spans="1:7">
+    <row r="150" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A150" s="1">
         <v>148</v>
       </c>
@@ -3231,7 +2620,7 @@
       <c r="F150" s="3"/>
       <c r="G150" s="3"/>
     </row>
-    <row r="151" spans="1:7">
+    <row r="151" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A151" s="1">
         <v>149</v>
       </c>
@@ -3239,7 +2628,7 @@
       <c r="F151" s="3"/>
       <c r="G151" s="3"/>
     </row>
-    <row r="152" spans="1:7">
+    <row r="152" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A152" s="1">
         <v>150</v>
       </c>
@@ -3247,7 +2636,7 @@
       <c r="F152" s="3"/>
       <c r="G152" s="3"/>
     </row>
-    <row r="153" spans="1:7">
+    <row r="153" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A153" s="1">
         <v>151</v>
       </c>
@@ -3255,7 +2644,7 @@
       <c r="F153" s="3"/>
       <c r="G153" s="3"/>
     </row>
-    <row r="154" spans="1:7">
+    <row r="154" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A154" s="1">
         <v>152</v>
       </c>
@@ -3263,7 +2652,7 @@
       <c r="F154" s="3"/>
       <c r="G154" s="3"/>
     </row>
-    <row r="155" spans="1:7">
+    <row r="155" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A155" s="1">
         <v>153</v>
       </c>
@@ -3271,7 +2660,7 @@
       <c r="F155" s="3"/>
       <c r="G155" s="3"/>
     </row>
-    <row r="156" spans="1:7">
+    <row r="156" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A156" s="1">
         <v>154</v>
       </c>
@@ -3279,7 +2668,7 @@
       <c r="F156" s="3"/>
       <c r="G156" s="3"/>
     </row>
-    <row r="157" spans="1:7">
+    <row r="157" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A157" s="1">
         <v>155</v>
       </c>
@@ -3287,7 +2676,7 @@
       <c r="F157" s="3"/>
       <c r="G157" s="3"/>
     </row>
-    <row r="158" spans="1:7">
+    <row r="158" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A158" s="1">
         <v>156</v>
       </c>
@@ -3295,7 +2684,7 @@
       <c r="F158" s="3"/>
       <c r="G158" s="3"/>
     </row>
-    <row r="159" spans="1:7">
+    <row r="159" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A159" s="1">
         <v>157</v>
       </c>
@@ -3303,7 +2692,7 @@
       <c r="F159" s="3"/>
       <c r="G159" s="3"/>
     </row>
-    <row r="160" spans="1:7">
+    <row r="160" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A160" s="1">
         <v>158</v>
       </c>
@@ -3311,7 +2700,7 @@
       <c r="F160" s="3"/>
       <c r="G160" s="3"/>
     </row>
-    <row r="161" spans="1:7">
+    <row r="161" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A161" s="1">
         <v>159</v>
       </c>
@@ -3319,7 +2708,7 @@
       <c r="F161" s="3"/>
       <c r="G161" s="3"/>
     </row>
-    <row r="162" spans="1:7">
+    <row r="162" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A162" s="1">
         <v>160</v>
       </c>
@@ -3327,7 +2716,7 @@
       <c r="F162" s="3"/>
       <c r="G162" s="3"/>
     </row>
-    <row r="163" spans="1:7">
+    <row r="163" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A163" s="1">
         <v>161</v>
       </c>
@@ -3335,7 +2724,7 @@
       <c r="F163" s="3"/>
       <c r="G163" s="3"/>
     </row>
-    <row r="164" spans="1:7">
+    <row r="164" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A164" s="1">
         <v>162</v>
       </c>
@@ -3343,7 +2732,7 @@
       <c r="F164" s="3"/>
       <c r="G164" s="3"/>
     </row>
-    <row r="165" spans="1:7">
+    <row r="165" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A165" s="1">
         <v>163</v>
       </c>
@@ -3351,7 +2740,7 @@
       <c r="F165" s="3"/>
       <c r="G165" s="3"/>
     </row>
-    <row r="166" spans="1:7">
+    <row r="166" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A166" s="1">
         <v>164</v>
       </c>
@@ -3359,7 +2748,7 @@
       <c r="F166" s="3"/>
       <c r="G166" s="3"/>
     </row>
-    <row r="167" spans="1:7">
+    <row r="167" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A167" s="1">
         <v>165</v>
       </c>
@@ -3367,7 +2756,7 @@
       <c r="F167" s="3"/>
       <c r="G167" s="3"/>
     </row>
-    <row r="168" spans="1:7">
+    <row r="168" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A168" s="1">
         <v>166</v>
       </c>
@@ -3376,7 +2765,7 @@
       <c r="F168" s="3"/>
       <c r="G168" s="3"/>
     </row>
-    <row r="169" spans="1:7">
+    <row r="169" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A169" s="1">
         <v>167</v>
       </c>
@@ -3385,7 +2774,7 @@
       <c r="F169" s="3"/>
       <c r="G169" s="3"/>
     </row>
-    <row r="170" spans="1:7">
+    <row r="170" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A170" s="1">
         <v>168</v>
       </c>
@@ -3394,7 +2783,7 @@
       <c r="F170" s="3"/>
       <c r="G170" s="3"/>
     </row>
-    <row r="171" spans="1:7">
+    <row r="171" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A171" s="1">
         <v>169</v>
       </c>
@@ -3403,7 +2792,7 @@
       <c r="F171" s="3"/>
       <c r="G171" s="3"/>
     </row>
-    <row r="172" spans="1:7">
+    <row r="172" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A172" s="1">
         <v>170</v>
       </c>
@@ -3412,7 +2801,7 @@
       <c r="F172" s="3"/>
       <c r="G172" s="3"/>
     </row>
-    <row r="173" spans="1:7">
+    <row r="173" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A173" s="1">
         <v>171</v>
       </c>
@@ -3421,7 +2810,7 @@
       <c r="F173" s="3"/>
       <c r="G173" s="3"/>
     </row>
-    <row r="174" spans="1:7">
+    <row r="174" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A174" s="1">
         <v>172</v>
       </c>
@@ -3430,7 +2819,7 @@
       <c r="F174" s="3"/>
       <c r="G174" s="3"/>
     </row>
-    <row r="175" spans="1:7">
+    <row r="175" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A175" s="1">
         <v>173</v>
       </c>
@@ -3439,7 +2828,7 @@
       <c r="F175" s="3"/>
       <c r="G175" s="3"/>
     </row>
-    <row r="176" spans="1:7">
+    <row r="176" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A176" s="1">
         <v>174</v>
       </c>
@@ -3448,7 +2837,7 @@
       <c r="F176" s="3"/>
       <c r="G176" s="3"/>
     </row>
-    <row r="177" spans="1:7">
+    <row r="177" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A177" s="1">
         <v>175</v>
       </c>
@@ -3457,7 +2846,7 @@
       <c r="F177" s="3"/>
       <c r="G177" s="3"/>
     </row>
-    <row r="178" spans="1:7">
+    <row r="178" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A178" s="1">
         <v>176</v>
       </c>
@@ -3466,7 +2855,7 @@
       <c r="F178" s="3"/>
       <c r="G178" s="3"/>
     </row>
-    <row r="179" spans="1:7">
+    <row r="179" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A179" s="1">
         <v>177</v>
       </c>
@@ -3475,7 +2864,7 @@
       <c r="F179" s="3"/>
       <c r="G179" s="3"/>
     </row>
-    <row r="180" spans="1:7">
+    <row r="180" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A180" s="1">
         <v>178</v>
       </c>
@@ -3484,7 +2873,7 @@
       <c r="F180" s="3"/>
       <c r="G180" s="3"/>
     </row>
-    <row r="181" spans="1:7">
+    <row r="181" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A181" s="1">
         <v>179</v>
       </c>
@@ -3493,7 +2882,7 @@
       <c r="F181" s="3"/>
       <c r="G181" s="3"/>
     </row>
-    <row r="182" spans="1:7">
+    <row r="182" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A182" s="1">
         <v>180</v>
       </c>
@@ -3502,7 +2891,7 @@
       <c r="F182" s="3"/>
       <c r="G182" s="3"/>
     </row>
-    <row r="183" spans="1:7">
+    <row r="183" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A183" s="1">
         <v>181</v>
       </c>
@@ -3511,7 +2900,7 @@
       <c r="F183" s="3"/>
       <c r="G183" s="3"/>
     </row>
-    <row r="184" spans="1:7">
+    <row r="184" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A184" s="1">
         <v>182</v>
       </c>
@@ -3520,7 +2909,7 @@
       <c r="F184" s="3"/>
       <c r="G184" s="3"/>
     </row>
-    <row r="185" spans="1:7">
+    <row r="185" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A185" s="1">
         <v>183</v>
       </c>
@@ -3529,7 +2918,7 @@
       <c r="F185" s="3"/>
       <c r="G185" s="3"/>
     </row>
-    <row r="186" spans="1:7">
+    <row r="186" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A186" s="1">
         <v>184</v>
       </c>
@@ -3538,7 +2927,7 @@
       <c r="F186" s="3"/>
       <c r="G186" s="3"/>
     </row>
-    <row r="187" spans="1:7">
+    <row r="187" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A187" s="1">
         <v>185</v>
       </c>
@@ -3547,7 +2936,7 @@
       <c r="F187" s="3"/>
       <c r="G187" s="3"/>
     </row>
-    <row r="188" spans="1:7">
+    <row r="188" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A188" s="1">
         <v>186</v>
       </c>
@@ -3556,7 +2945,7 @@
       <c r="F188" s="3"/>
       <c r="G188" s="3"/>
     </row>
-    <row r="189" spans="1:7">
+    <row r="189" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A189" s="1">
         <v>187</v>
       </c>
@@ -3565,7 +2954,7 @@
       <c r="F189" s="3"/>
       <c r="G189" s="3"/>
     </row>
-    <row r="190" spans="1:7">
+    <row r="190" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A190" s="1">
         <v>188</v>
       </c>
@@ -3574,7 +2963,7 @@
       <c r="F190" s="3"/>
       <c r="G190" s="3"/>
     </row>
-    <row r="191" spans="1:7">
+    <row r="191" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A191" s="1">
         <v>189</v>
       </c>
@@ -3583,7 +2972,7 @@
       <c r="F191" s="3"/>
       <c r="G191" s="3"/>
     </row>
-    <row r="192" spans="1:7">
+    <row r="192" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A192" s="1">
         <v>190</v>
       </c>
@@ -3592,7 +2981,7 @@
       <c r="F192" s="3"/>
       <c r="G192" s="3"/>
     </row>
-    <row r="193" spans="1:7">
+    <row r="193" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A193" s="1">
         <v>191</v>
       </c>
@@ -3601,7 +2990,7 @@
       <c r="F193" s="3"/>
       <c r="G193" s="3"/>
     </row>
-    <row r="194" spans="1:7">
+    <row r="194" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A194" s="1">
         <v>192</v>
       </c>
@@ -3610,7 +2999,7 @@
       <c r="F194" s="3"/>
       <c r="G194" s="3"/>
     </row>
-    <row r="195" spans="1:7">
+    <row r="195" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A195" s="1">
         <v>193</v>
       </c>
@@ -3619,7 +3008,7 @@
       <c r="F195" s="3"/>
       <c r="G195" s="3"/>
     </row>
-    <row r="196" spans="1:7">
+    <row r="196" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A196" s="1">
         <v>194</v>
       </c>
@@ -3628,7 +3017,7 @@
       <c r="F196" s="3"/>
       <c r="G196" s="3"/>
     </row>
-    <row r="197" spans="1:7">
+    <row r="197" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A197" s="1">
         <v>195</v>
       </c>
@@ -3637,7 +3026,7 @@
       <c r="F197" s="3"/>
       <c r="G197" s="3"/>
     </row>
-    <row r="198" spans="1:7">
+    <row r="198" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A198" s="1">
         <v>196</v>
       </c>
@@ -3646,7 +3035,7 @@
       <c r="F198" s="3"/>
       <c r="G198" s="3"/>
     </row>
-    <row r="199" spans="1:7">
+    <row r="199" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A199" s="1">
         <v>197</v>
       </c>
@@ -3655,7 +3044,7 @@
       <c r="F199" s="3"/>
       <c r="G199" s="3"/>
     </row>
-    <row r="200" spans="1:7">
+    <row r="200" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A200" s="1">
         <v>198</v>
       </c>
@@ -3664,7 +3053,7 @@
       <c r="F200" s="3"/>
       <c r="G200" s="3"/>
     </row>
-    <row r="201" spans="1:7">
+    <row r="201" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A201" s="1">
         <v>199</v>
       </c>
@@ -3673,7 +3062,7 @@
       <c r="F201" s="3"/>
       <c r="G201" s="3"/>
     </row>
-    <row r="202" spans="1:7">
+    <row r="202" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A202" s="1">
         <v>200</v>
       </c>
@@ -3682,7 +3071,7 @@
       <c r="F202" s="3"/>
       <c r="G202" s="3"/>
     </row>
-    <row r="203" spans="1:7">
+    <row r="203" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A203" s="1">
         <v>201</v>
       </c>
@@ -3691,7 +3080,7 @@
       <c r="F203" s="3"/>
       <c r="G203" s="3"/>
     </row>
-    <row r="204" spans="1:7">
+    <row r="204" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A204" s="1">
         <v>202</v>
       </c>
@@ -3700,7 +3089,7 @@
       <c r="F204" s="3"/>
       <c r="G204" s="3"/>
     </row>
-    <row r="205" spans="1:7">
+    <row r="205" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A205" s="1">
         <v>203</v>
       </c>
@@ -3709,7 +3098,7 @@
       <c r="F205" s="3"/>
       <c r="G205" s="3"/>
     </row>
-    <row r="206" spans="1:7">
+    <row r="206" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A206" s="1">
         <v>204</v>
       </c>
@@ -3718,7 +3107,7 @@
       <c r="F206" s="3"/>
       <c r="G206" s="3"/>
     </row>
-    <row r="207" spans="1:7">
+    <row r="207" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A207" s="1">
         <v>205</v>
       </c>
@@ -3727,7 +3116,7 @@
       <c r="F207" s="3"/>
       <c r="G207" s="3"/>
     </row>
-    <row r="208" spans="1:7">
+    <row r="208" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A208" s="1">
         <v>206</v>
       </c>
@@ -3736,7 +3125,7 @@
       <c r="F208" s="3"/>
       <c r="G208" s="3"/>
     </row>
-    <row r="209" spans="1:7">
+    <row r="209" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A209" s="1">
         <v>207</v>
       </c>
@@ -3745,7 +3134,7 @@
       <c r="F209" s="3"/>
       <c r="G209" s="3"/>
     </row>
-    <row r="210" spans="1:7">
+    <row r="210" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A210" s="1">
         <v>208</v>
       </c>
@@ -3754,7 +3143,7 @@
       <c r="F210" s="3"/>
       <c r="G210" s="3"/>
     </row>
-    <row r="211" spans="1:7">
+    <row r="211" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A211" s="1">
         <v>209</v>
       </c>
@@ -3763,7 +3152,7 @@
       <c r="F211" s="3"/>
       <c r="G211" s="3"/>
     </row>
-    <row r="212" spans="1:7">
+    <row r="212" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A212" s="1">
         <v>210</v>
       </c>
@@ -3772,7 +3161,7 @@
       <c r="F212" s="3"/>
       <c r="G212" s="3"/>
     </row>
-    <row r="213" spans="1:7">
+    <row r="213" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A213" s="1">
         <v>211</v>
       </c>
@@ -3781,7 +3170,7 @@
       <c r="F213" s="3"/>
       <c r="G213" s="3"/>
     </row>
-    <row r="214" spans="1:7">
+    <row r="214" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A214" s="1">
         <v>212</v>
       </c>
@@ -3790,7 +3179,7 @@
       <c r="F214" s="3"/>
       <c r="G214" s="3"/>
     </row>
-    <row r="215" spans="1:7">
+    <row r="215" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A215" s="1">
         <v>213</v>
       </c>
@@ -3799,7 +3188,7 @@
       <c r="F215" s="3"/>
       <c r="G215" s="3"/>
     </row>
-    <row r="216" spans="1:7">
+    <row r="216" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A216" s="1">
         <v>214</v>
       </c>
@@ -3808,7 +3197,7 @@
       <c r="F216" s="3"/>
       <c r="G216" s="3"/>
     </row>
-    <row r="217" spans="1:7">
+    <row r="217" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A217" s="1">
         <v>215</v>
       </c>
@@ -3817,7 +3206,7 @@
       <c r="F217" s="3"/>
       <c r="G217" s="3"/>
     </row>
-    <row r="218" spans="1:7">
+    <row r="218" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A218" s="1">
         <v>216</v>
       </c>
@@ -3826,7 +3215,7 @@
       <c r="F218" s="3"/>
       <c r="G218" s="3"/>
     </row>
-    <row r="219" spans="1:7">
+    <row r="219" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A219" s="1">
         <v>217</v>
       </c>
@@ -3835,7 +3224,7 @@
       <c r="F219" s="3"/>
       <c r="G219" s="3"/>
     </row>
-    <row r="220" spans="1:7">
+    <row r="220" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A220" s="1">
         <v>218</v>
       </c>
@@ -3844,7 +3233,7 @@
       <c r="F220" s="3"/>
       <c r="G220" s="3"/>
     </row>
-    <row r="221" spans="1:7">
+    <row r="221" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A221" s="1">
         <v>219</v>
       </c>
@@ -3853,7 +3242,7 @@
       <c r="F221" s="3"/>
       <c r="G221" s="3"/>
     </row>
-    <row r="222" spans="1:7">
+    <row r="222" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A222" s="1">
         <v>220</v>
       </c>
@@ -3862,7 +3251,7 @@
       <c r="F222" s="3"/>
       <c r="G222" s="3"/>
     </row>
-    <row r="223" spans="1:7">
+    <row r="223" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A223" s="1">
         <v>221</v>
       </c>
@@ -3871,7 +3260,7 @@
       <c r="F223" s="3"/>
       <c r="G223" s="3"/>
     </row>
-    <row r="224" spans="1:7">
+    <row r="224" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A224" s="1">
         <v>222</v>
       </c>
@@ -3880,7 +3269,7 @@
       <c r="F224" s="3"/>
       <c r="G224" s="3"/>
     </row>
-    <row r="225" spans="1:7">
+    <row r="225" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A225" s="1">
         <v>223</v>
       </c>
@@ -3889,7 +3278,7 @@
       <c r="F225" s="3"/>
       <c r="G225" s="3"/>
     </row>
-    <row r="226" spans="1:7">
+    <row r="226" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A226" s="1">
         <v>224</v>
       </c>
@@ -3898,7 +3287,7 @@
       <c r="F226" s="3"/>
       <c r="G226" s="3"/>
     </row>
-    <row r="227" spans="1:7">
+    <row r="227" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A227" s="1">
         <v>225</v>
       </c>
@@ -3907,7 +3296,7 @@
       <c r="F227" s="3"/>
       <c r="G227" s="3"/>
     </row>
-    <row r="228" spans="1:7">
+    <row r="228" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A228" s="1">
         <v>226</v>
       </c>
@@ -3916,7 +3305,7 @@
       <c r="F228" s="3"/>
       <c r="G228" s="3"/>
     </row>
-    <row r="229" spans="1:7">
+    <row r="229" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A229" s="1">
         <v>227</v>
       </c>
@@ -3925,7 +3314,7 @@
       <c r="F229" s="3"/>
       <c r="G229" s="3"/>
     </row>
-    <row r="230" spans="1:7">
+    <row r="230" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A230" s="1">
         <v>228</v>
       </c>
@@ -3934,7 +3323,7 @@
       <c r="F230" s="3"/>
       <c r="G230" s="3"/>
     </row>
-    <row r="231" spans="1:7">
+    <row r="231" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A231" s="1">
         <v>229</v>
       </c>
@@ -3943,7 +3332,7 @@
       <c r="F231" s="3"/>
       <c r="G231" s="3"/>
     </row>
-    <row r="232" spans="1:7">
+    <row r="232" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A232" s="1">
         <v>230</v>
       </c>
@@ -3952,7 +3341,7 @@
       <c r="F232" s="3"/>
       <c r="G232" s="3"/>
     </row>
-    <row r="233" spans="1:7">
+    <row r="233" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A233" s="1">
         <v>231</v>
       </c>
@@ -3961,7 +3350,7 @@
       <c r="F233" s="3"/>
       <c r="G233" s="3"/>
     </row>
-    <row r="234" spans="1:7">
+    <row r="234" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A234" s="1">
         <v>232</v>
       </c>
@@ -3970,7 +3359,7 @@
       <c r="F234" s="3"/>
       <c r="G234" s="3"/>
     </row>
-    <row r="235" spans="1:7">
+    <row r="235" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A235" s="1">
         <v>233</v>
       </c>
@@ -3979,7 +3368,7 @@
       <c r="F235" s="3"/>
       <c r="G235" s="3"/>
     </row>
-    <row r="236" spans="1:7">
+    <row r="236" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A236" s="1">
         <v>234</v>
       </c>
@@ -3988,7 +3377,7 @@
       <c r="F236" s="3"/>
       <c r="G236" s="3"/>
     </row>
-    <row r="237" spans="1:7">
+    <row r="237" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A237" s="1">
         <v>235</v>
       </c>
@@ -3997,7 +3386,7 @@
       <c r="F237" s="3"/>
       <c r="G237" s="3"/>
     </row>
-    <row r="238" spans="1:7">
+    <row r="238" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A238" s="1">
         <v>236</v>
       </c>
@@ -4006,7 +3395,7 @@
       <c r="F238" s="3"/>
       <c r="G238" s="3"/>
     </row>
-    <row r="239" spans="1:7">
+    <row r="239" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A239" s="1">
         <v>237</v>
       </c>
@@ -4015,7 +3404,7 @@
       <c r="F239" s="3"/>
       <c r="G239" s="3"/>
     </row>
-    <row r="240" spans="1:7">
+    <row r="240" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A240" s="1">
         <v>238</v>
       </c>
@@ -4024,7 +3413,7 @@
       <c r="F240" s="3"/>
       <c r="G240" s="3"/>
     </row>
-    <row r="241" spans="1:7">
+    <row r="241" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A241" s="1">
         <v>239</v>
       </c>
@@ -4033,7 +3422,7 @@
       <c r="F241" s="3"/>
       <c r="G241" s="3"/>
     </row>
-    <row r="242" spans="1:7">
+    <row r="242" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A242" s="1">
         <v>240</v>
       </c>
@@ -4042,7 +3431,7 @@
       <c r="F242" s="3"/>
       <c r="G242" s="3"/>
     </row>
-    <row r="243" spans="1:7">
+    <row r="243" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A243" s="1">
         <v>241</v>
       </c>
@@ -4051,7 +3440,7 @@
       <c r="F243" s="3"/>
       <c r="G243" s="3"/>
     </row>
-    <row r="244" spans="1:7">
+    <row r="244" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A244" s="1">
         <v>242</v>
       </c>
@@ -4060,7 +3449,7 @@
       <c r="F244" s="3"/>
       <c r="G244" s="3"/>
     </row>
-    <row r="245" spans="1:7">
+    <row r="245" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A245" s="1">
         <v>243</v>
       </c>
@@ -4069,7 +3458,7 @@
       <c r="F245" s="3"/>
       <c r="G245" s="3"/>
     </row>
-    <row r="246" spans="1:7">
+    <row r="246" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A246" s="1">
         <v>244</v>
       </c>
@@ -4078,7 +3467,7 @@
       <c r="F246" s="3"/>
       <c r="G246" s="3"/>
     </row>
-    <row r="247" spans="1:7">
+    <row r="247" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A247" s="1">
         <v>245</v>
       </c>
@@ -4087,7 +3476,7 @@
       <c r="F247" s="3"/>
       <c r="G247" s="3"/>
     </row>
-    <row r="248" spans="1:7">
+    <row r="248" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A248" s="1">
         <v>246</v>
       </c>
@@ -4096,7 +3485,7 @@
       <c r="F248" s="3"/>
       <c r="G248" s="3"/>
     </row>
-    <row r="249" spans="1:7">
+    <row r="249" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A249" s="1">
         <v>247</v>
       </c>
@@ -4105,7 +3494,7 @@
       <c r="F249" s="3"/>
       <c r="G249" s="3"/>
     </row>
-    <row r="250" spans="1:7">
+    <row r="250" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A250" s="1">
         <v>248</v>
       </c>
@@ -4114,7 +3503,7 @@
       <c r="F250" s="3"/>
       <c r="G250" s="3"/>
     </row>
-    <row r="251" spans="1:7">
+    <row r="251" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A251" s="1">
         <v>249</v>
       </c>
@@ -4123,7 +3512,7 @@
       <c r="F251" s="3"/>
       <c r="G251" s="3"/>
     </row>
-    <row r="252" spans="1:7">
+    <row r="252" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A252" s="1">
         <v>250</v>
       </c>
@@ -4132,7 +3521,7 @@
       <c r="F252" s="3"/>
       <c r="G252" s="3"/>
     </row>
-    <row r="253" spans="1:7">
+    <row r="253" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A253" s="1">
         <v>251</v>
       </c>
@@ -4141,7 +3530,7 @@
       <c r="F253" s="3"/>
       <c r="G253" s="3"/>
     </row>
-    <row r="254" spans="1:7">
+    <row r="254" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A254" s="1">
         <v>252</v>
       </c>
@@ -4150,7 +3539,7 @@
       <c r="F254" s="3"/>
       <c r="G254" s="3"/>
     </row>
-    <row r="255" spans="1:7">
+    <row r="255" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A255" s="1">
         <v>253</v>
       </c>
@@ -4159,7 +3548,7 @@
       <c r="F255" s="3"/>
       <c r="G255" s="3"/>
     </row>
-    <row r="256" spans="1:7">
+    <row r="256" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A256" s="1">
         <v>254</v>
       </c>
@@ -4168,7 +3557,7 @@
       <c r="F256" s="3"/>
       <c r="G256" s="3"/>
     </row>
-    <row r="257" spans="1:7">
+    <row r="257" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A257" s="1">
         <v>255</v>
       </c>
@@ -4177,7 +3566,7 @@
       <c r="F257" s="3"/>
       <c r="G257" s="3"/>
     </row>
-    <row r="258" spans="1:7">
+    <row r="258" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A258" s="1">
         <v>256</v>
       </c>
@@ -4186,7 +3575,7 @@
       <c r="F258" s="3"/>
       <c r="G258" s="3"/>
     </row>
-    <row r="259" spans="1:7">
+    <row r="259" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A259" s="1">
         <v>257</v>
       </c>
@@ -4195,7 +3584,7 @@
       <c r="F259" s="3"/>
       <c r="G259" s="3"/>
     </row>
-    <row r="260" spans="1:7">
+    <row r="260" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A260" s="1">
         <v>258</v>
       </c>
@@ -4204,7 +3593,7 @@
       <c r="F260" s="3"/>
       <c r="G260" s="3"/>
     </row>
-    <row r="261" spans="1:7">
+    <row r="261" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A261" s="1">
         <v>259</v>
       </c>
@@ -4213,7 +3602,7 @@
       <c r="F261" s="3"/>
       <c r="G261" s="3"/>
     </row>
-    <row r="262" spans="1:7">
+    <row r="262" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A262" s="1">
         <v>260</v>
       </c>
@@ -4222,7 +3611,7 @@
       <c r="F262" s="3"/>
       <c r="G262" s="3"/>
     </row>
-    <row r="263" spans="1:7">
+    <row r="263" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A263" s="1">
         <v>261</v>
       </c>
@@ -4231,7 +3620,7 @@
       <c r="F263" s="3"/>
       <c r="G263" s="3"/>
     </row>
-    <row r="264" spans="1:7">
+    <row r="264" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A264" s="1">
         <v>262</v>
       </c>
@@ -4240,7 +3629,7 @@
       <c r="F264" s="3"/>
       <c r="G264" s="3"/>
     </row>
-    <row r="265" spans="1:7">
+    <row r="265" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A265" s="1">
         <v>263</v>
       </c>
@@ -4249,7 +3638,7 @@
       <c r="F265" s="3"/>
       <c r="G265" s="3"/>
     </row>
-    <row r="266" spans="1:7">
+    <row r="266" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A266" s="1">
         <v>264</v>
       </c>
@@ -4258,7 +3647,7 @@
       <c r="F266" s="3"/>
       <c r="G266" s="3"/>
     </row>
-    <row r="267" spans="1:7">
+    <row r="267" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A267" s="1">
         <v>265</v>
       </c>
@@ -4267,7 +3656,7 @@
       <c r="F267" s="3"/>
       <c r="G267" s="3"/>
     </row>
-    <row r="268" spans="1:7">
+    <row r="268" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A268" s="1">
         <v>266</v>
       </c>
@@ -4276,7 +3665,7 @@
       <c r="F268" s="3"/>
       <c r="G268" s="3"/>
     </row>
-    <row r="269" spans="1:7">
+    <row r="269" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A269" s="1">
         <v>267</v>
       </c>
@@ -4285,7 +3674,7 @@
       <c r="F269" s="3"/>
       <c r="G269" s="3"/>
     </row>
-    <row r="270" spans="1:7">
+    <row r="270" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A270" s="1">
         <v>268</v>
       </c>
@@ -4294,7 +3683,7 @@
       <c r="F270" s="3"/>
       <c r="G270" s="3"/>
     </row>
-    <row r="271" spans="1:7">
+    <row r="271" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A271" s="1">
         <v>269</v>
       </c>
@@ -4303,7 +3692,7 @@
       <c r="F271" s="3"/>
       <c r="G271" s="3"/>
     </row>
-    <row r="272" spans="1:7">
+    <row r="272" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A272" s="1">
         <v>270</v>
       </c>
@@ -4312,7 +3701,7 @@
       <c r="F272" s="3"/>
       <c r="G272" s="3"/>
     </row>
-    <row r="273" spans="1:7">
+    <row r="273" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A273" s="1">
         <v>271</v>
       </c>
@@ -4321,7 +3710,7 @@
       <c r="F273" s="3"/>
       <c r="G273" s="3"/>
     </row>
-    <row r="274" spans="1:7">
+    <row r="274" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A274" s="1">
         <v>272</v>
       </c>
@@ -4330,7 +3719,7 @@
       <c r="F274" s="3"/>
       <c r="G274" s="3"/>
     </row>
-    <row r="275" spans="1:7">
+    <row r="275" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A275" s="1">
         <v>273</v>
       </c>
@@ -4339,7 +3728,7 @@
       <c r="F275" s="3"/>
       <c r="G275" s="3"/>
     </row>
-    <row r="276" spans="1:7">
+    <row r="276" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A276" s="1">
         <v>274</v>
       </c>
@@ -4348,7 +3737,7 @@
       <c r="F276" s="3"/>
       <c r="G276" s="3"/>
     </row>
-    <row r="277" spans="1:7">
+    <row r="277" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A277" s="1">
         <v>275</v>
       </c>
@@ -4357,7 +3746,7 @@
       <c r="F277" s="3"/>
       <c r="G277" s="3"/>
     </row>
-    <row r="278" spans="1:7">
+    <row r="278" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A278" s="1">
         <v>276</v>
       </c>
@@ -4366,7 +3755,7 @@
       <c r="F278" s="3"/>
       <c r="G278" s="3"/>
     </row>
-    <row r="279" spans="1:7">
+    <row r="279" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A279" s="1">
         <v>277</v>
       </c>
@@ -4375,7 +3764,7 @@
       <c r="F279" s="3"/>
       <c r="G279" s="3"/>
     </row>
-    <row r="280" spans="1:7">
+    <row r="280" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A280" s="1">
         <v>278</v>
       </c>
@@ -4384,7 +3773,7 @@
       <c r="F280" s="3"/>
       <c r="G280" s="3"/>
     </row>
-    <row r="281" spans="1:7">
+    <row r="281" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A281" s="1">
         <v>279</v>
       </c>
@@ -4393,7 +3782,7 @@
       <c r="F281" s="3"/>
       <c r="G281" s="3"/>
     </row>
-    <row r="282" spans="1:7">
+    <row r="282" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A282" s="1">
         <v>280</v>
       </c>
@@ -4402,7 +3791,7 @@
       <c r="F282" s="3"/>
       <c r="G282" s="3"/>
     </row>
-    <row r="283" spans="1:7">
+    <row r="283" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A283" s="1">
         <v>281</v>
       </c>
@@ -4411,7 +3800,7 @@
       <c r="F283" s="3"/>
       <c r="G283" s="3"/>
     </row>
-    <row r="284" spans="1:7">
+    <row r="284" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A284" s="1">
         <v>282</v>
       </c>
@@ -4420,7 +3809,7 @@
       <c r="F284" s="3"/>
       <c r="G284" s="3"/>
     </row>
-    <row r="285" spans="1:7">
+    <row r="285" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A285" s="1">
         <v>283</v>
       </c>
@@ -4429,7 +3818,7 @@
       <c r="F285" s="3"/>
       <c r="G285" s="3"/>
     </row>
-    <row r="286" spans="1:7">
+    <row r="286" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A286" s="1">
         <v>284</v>
       </c>
@@ -4438,7 +3827,7 @@
       <c r="F286" s="3"/>
       <c r="G286" s="3"/>
     </row>
-    <row r="287" spans="1:7">
+    <row r="287" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A287" s="1">
         <v>285</v>
       </c>
@@ -4447,7 +3836,7 @@
       <c r="F287" s="3"/>
       <c r="G287" s="3"/>
     </row>
-    <row r="288" spans="1:7">
+    <row r="288" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A288" s="1">
         <v>286</v>
       </c>
@@ -4456,7 +3845,7 @@
       <c r="F288" s="3"/>
       <c r="G288" s="3"/>
     </row>
-    <row r="289" spans="1:7">
+    <row r="289" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A289" s="1">
         <v>287</v>
       </c>
@@ -4465,7 +3854,7 @@
       <c r="F289" s="3"/>
       <c r="G289" s="3"/>
     </row>
-    <row r="290" spans="1:7">
+    <row r="290" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A290" s="1">
         <v>288</v>
       </c>
@@ -4474,7 +3863,7 @@
       <c r="F290" s="3"/>
       <c r="G290" s="3"/>
     </row>
-    <row r="291" spans="1:7">
+    <row r="291" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A291" s="1">
         <v>289</v>
       </c>
@@ -4483,7 +3872,7 @@
       <c r="F291" s="3"/>
       <c r="G291" s="3"/>
     </row>
-    <row r="292" spans="1:7">
+    <row r="292" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A292" s="1">
         <v>290</v>
       </c>
@@ -4492,7 +3881,7 @@
       <c r="F292" s="3"/>
       <c r="G292" s="3"/>
     </row>
-    <row r="293" spans="1:7">
+    <row r="293" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A293" s="1">
         <v>291</v>
       </c>
@@ -4501,7 +3890,7 @@
       <c r="F293" s="3"/>
       <c r="G293" s="3"/>
     </row>
-    <row r="294" spans="1:7">
+    <row r="294" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A294" s="1">
         <v>292</v>
       </c>
@@ -4510,7 +3899,7 @@
       <c r="F294" s="3"/>
       <c r="G294" s="3"/>
     </row>
-    <row r="295" spans="1:7">
+    <row r="295" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A295" s="1">
         <v>293</v>
       </c>
@@ -4519,7 +3908,7 @@
       <c r="F295" s="3"/>
       <c r="G295" s="3"/>
     </row>
-    <row r="296" spans="1:7">
+    <row r="296" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A296" s="1">
         <v>294</v>
       </c>
@@ -4528,7 +3917,7 @@
       <c r="F296" s="3"/>
       <c r="G296" s="3"/>
     </row>
-    <row r="297" spans="1:7">
+    <row r="297" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A297" s="1">
         <v>295</v>
       </c>
@@ -4537,7 +3926,7 @@
       <c r="F297" s="3"/>
       <c r="G297" s="3"/>
     </row>
-    <row r="298" spans="1:7">
+    <row r="298" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A298" s="1">
         <v>296</v>
       </c>
@@ -4546,7 +3935,7 @@
       <c r="F298" s="3"/>
       <c r="G298" s="3"/>
     </row>
-    <row r="299" spans="1:7">
+    <row r="299" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A299" s="1">
         <v>297</v>
       </c>
@@ -4555,7 +3944,7 @@
       <c r="F299" s="3"/>
       <c r="G299" s="3"/>
     </row>
-    <row r="300" spans="1:7">
+    <row r="300" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A300" s="1">
         <v>298</v>
       </c>
@@ -4564,7 +3953,7 @@
       <c r="F300" s="3"/>
       <c r="G300" s="3"/>
     </row>
-    <row r="301" spans="1:7">
+    <row r="301" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A301" s="1">
         <v>299</v>
       </c>
@@ -4573,7 +3962,7 @@
       <c r="F301" s="3"/>
       <c r="G301" s="3"/>
     </row>
-    <row r="302" spans="1:7">
+    <row r="302" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A302" s="1">
         <v>300</v>
       </c>
@@ -4582,7 +3971,7 @@
       <c r="F302" s="3"/>
       <c r="G302" s="3"/>
     </row>
-    <row r="303" spans="1:7">
+    <row r="303" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A303" s="1">
         <v>301</v>
       </c>
@@ -4591,7 +3980,7 @@
       <c r="F303" s="3"/>
       <c r="G303" s="3"/>
     </row>
-    <row r="304" spans="1:7">
+    <row r="304" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A304" s="1">
         <v>302</v>
       </c>
@@ -4600,7 +3989,7 @@
       <c r="F304" s="3"/>
       <c r="G304" s="3"/>
     </row>
-    <row r="305" spans="1:7">
+    <row r="305" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A305" s="1">
         <v>303</v>
       </c>
@@ -4609,7 +3998,7 @@
       <c r="F305" s="3"/>
       <c r="G305" s="3"/>
     </row>
-    <row r="306" spans="1:7">
+    <row r="306" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A306" s="1">
         <v>304</v>
       </c>
@@ -4618,7 +4007,7 @@
       <c r="F306" s="3"/>
       <c r="G306" s="3"/>
     </row>
-    <row r="307" spans="1:7">
+    <row r="307" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A307" s="1">
         <v>305</v>
       </c>
@@ -4627,7 +4016,7 @@
       <c r="F307" s="3"/>
       <c r="G307" s="3"/>
     </row>
-    <row r="308" spans="1:7">
+    <row r="308" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A308" s="1">
         <v>306</v>
       </c>
@@ -4636,7 +4025,7 @@
       <c r="F308" s="3"/>
       <c r="G308" s="3"/>
     </row>
-    <row r="309" spans="1:7">
+    <row r="309" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A309" s="1">
         <v>307</v>
       </c>
@@ -4645,7 +4034,7 @@
       <c r="F309" s="3"/>
       <c r="G309" s="3"/>
     </row>
-    <row r="310" spans="1:7">
+    <row r="310" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A310" s="1">
         <v>308</v>
       </c>
@@ -4654,7 +4043,7 @@
       <c r="F310" s="3"/>
       <c r="G310" s="3"/>
     </row>
-    <row r="311" spans="1:7">
+    <row r="311" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A311" s="1">
         <v>309</v>
       </c>
@@ -4663,7 +4052,7 @@
       <c r="F311" s="3"/>
       <c r="G311" s="3"/>
     </row>
-    <row r="312" spans="1:7">
+    <row r="312" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A312" s="1">
         <v>310</v>
       </c>
@@ -4672,7 +4061,7 @@
       <c r="F312" s="3"/>
       <c r="G312" s="3"/>
     </row>
-    <row r="313" spans="1:7">
+    <row r="313" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A313" s="1">
         <v>311</v>
       </c>
@@ -4681,7 +4070,7 @@
       <c r="F313" s="3"/>
       <c r="G313" s="3"/>
     </row>
-    <row r="314" spans="1:7">
+    <row r="314" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A314" s="1">
         <v>312</v>
       </c>
@@ -4690,7 +4079,7 @@
       <c r="F314" s="3"/>
       <c r="G314" s="3"/>
     </row>
-    <row r="315" spans="1:7">
+    <row r="315" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A315" s="1">
         <v>313</v>
       </c>
@@ -4699,7 +4088,7 @@
       <c r="F315" s="3"/>
       <c r="G315" s="3"/>
     </row>
-    <row r="316" spans="1:7">
+    <row r="316" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A316" s="1">
         <v>314</v>
       </c>
@@ -4708,7 +4097,7 @@
       <c r="F316" s="3"/>
       <c r="G316" s="3"/>
     </row>
-    <row r="317" spans="1:7">
+    <row r="317" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A317" s="1">
         <v>315</v>
       </c>
@@ -4717,7 +4106,7 @@
       <c r="F317" s="3"/>
       <c r="G317" s="3"/>
     </row>
-    <row r="318" spans="1:7">
+    <row r="318" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A318" s="1">
         <v>316</v>
       </c>
@@ -4726,7 +4115,7 @@
       <c r="F318" s="3"/>
       <c r="G318" s="3"/>
     </row>
-    <row r="319" spans="1:7">
+    <row r="319" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A319" s="1">
         <v>317</v>
       </c>
@@ -4735,7 +4124,7 @@
       <c r="F319" s="3"/>
       <c r="G319" s="3"/>
     </row>
-    <row r="320" spans="1:7">
+    <row r="320" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A320" s="1">
         <v>318</v>
       </c>
@@ -4744,7 +4133,7 @@
       <c r="F320" s="3"/>
       <c r="G320" s="3"/>
     </row>
-    <row r="321" spans="1:7">
+    <row r="321" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A321" s="1">
         <v>319</v>
       </c>
@@ -4753,7 +4142,7 @@
       <c r="F321" s="3"/>
       <c r="G321" s="3"/>
     </row>
-    <row r="322" spans="1:7">
+    <row r="322" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A322" s="1">
         <v>320</v>
       </c>
@@ -4762,7 +4151,7 @@
       <c r="F322" s="3"/>
       <c r="G322" s="3"/>
     </row>
-    <row r="323" spans="1:7">
+    <row r="323" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A323" s="1">
         <v>321</v>
       </c>
@@ -4771,7 +4160,7 @@
       <c r="F323" s="3"/>
       <c r="G323" s="3"/>
     </row>
-    <row r="324" spans="1:7">
+    <row r="324" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A324" s="1">
         <v>322</v>
       </c>
@@ -4780,7 +4169,7 @@
       <c r="F324" s="3"/>
       <c r="G324" s="3"/>
     </row>
-    <row r="325" spans="1:7">
+    <row r="325" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A325" s="1">
         <v>323</v>
       </c>
@@ -4789,7 +4178,7 @@
       <c r="F325" s="3"/>
       <c r="G325" s="3"/>
     </row>
-    <row r="326" spans="1:7">
+    <row r="326" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A326" s="1">
         <v>324</v>
       </c>
@@ -4798,7 +4187,7 @@
       <c r="F326" s="3"/>
       <c r="G326" s="3"/>
     </row>
-    <row r="327" spans="1:7">
+    <row r="327" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A327" s="1">
         <v>325</v>
       </c>
@@ -4807,7 +4196,7 @@
       <c r="F327" s="3"/>
       <c r="G327" s="3"/>
     </row>
-    <row r="328" spans="1:7">
+    <row r="328" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A328" s="1">
         <v>326</v>
       </c>
@@ -4816,7 +4205,7 @@
       <c r="F328" s="3"/>
       <c r="G328" s="3"/>
     </row>
-    <row r="329" spans="1:7">
+    <row r="329" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A329" s="1">
         <v>327</v>
       </c>
@@ -4825,7 +4214,7 @@
       <c r="F329" s="3"/>
       <c r="G329" s="3"/>
     </row>
-    <row r="330" spans="1:7">
+    <row r="330" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A330" s="1">
         <v>328</v>
       </c>
@@ -4834,7 +4223,7 @@
       <c r="F330" s="3"/>
       <c r="G330" s="3"/>
     </row>
-    <row r="331" spans="1:7">
+    <row r="331" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A331" s="1">
         <v>329</v>
       </c>
@@ -4843,7 +4232,7 @@
       <c r="F331" s="3"/>
       <c r="G331" s="3"/>
     </row>
-    <row r="332" spans="1:7">
+    <row r="332" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A332" s="1">
         <v>330</v>
       </c>
@@ -4852,7 +4241,7 @@
       <c r="F332" s="3"/>
       <c r="G332" s="3"/>
     </row>
-    <row r="333" spans="1:7">
+    <row r="333" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A333" s="1">
         <v>331</v>
       </c>
@@ -4861,7 +4250,7 @@
       <c r="F333" s="3"/>
       <c r="G333" s="3"/>
     </row>
-    <row r="334" spans="1:7">
+    <row r="334" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A334" s="1">
         <v>332</v>
       </c>
@@ -4870,7 +4259,7 @@
       <c r="F334" s="3"/>
       <c r="G334" s="3"/>
     </row>
-    <row r="335" spans="1:7">
+    <row r="335" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A335" s="1">
         <v>333</v>
       </c>
@@ -4879,7 +4268,7 @@
       <c r="F335" s="3"/>
       <c r="G335" s="3"/>
     </row>
-    <row r="336" spans="1:7">
+    <row r="336" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A336" s="1">
         <v>334</v>
       </c>
@@ -4888,7 +4277,7 @@
       <c r="F336" s="3"/>
       <c r="G336" s="3"/>
     </row>
-    <row r="337" spans="1:7">
+    <row r="337" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A337" s="1">
         <v>335</v>
       </c>
@@ -4897,7 +4286,7 @@
       <c r="F337" s="3"/>
       <c r="G337" s="3"/>
     </row>
-    <row r="338" spans="1:7">
+    <row r="338" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A338" s="1">
         <v>336</v>
       </c>
@@ -4906,7 +4295,7 @@
       <c r="F338" s="3"/>
       <c r="G338" s="3"/>
     </row>
-    <row r="339" spans="1:7">
+    <row r="339" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A339" s="1">
         <v>337</v>
       </c>
@@ -4915,7 +4304,7 @@
       <c r="F339" s="3"/>
       <c r="G339" s="3"/>
     </row>
-    <row r="340" spans="1:7">
+    <row r="340" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A340" s="1">
         <v>338</v>
       </c>
@@ -4924,7 +4313,7 @@
       <c r="F340" s="3"/>
       <c r="G340" s="3"/>
     </row>
-    <row r="341" spans="1:7">
+    <row r="341" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A341" s="1">
         <v>339</v>
       </c>
@@ -4933,7 +4322,7 @@
       <c r="F341" s="3"/>
       <c r="G341" s="3"/>
     </row>
-    <row r="342" spans="1:7">
+    <row r="342" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A342" s="1">
         <v>340</v>
       </c>
@@ -4942,7 +4331,7 @@
       <c r="F342" s="3"/>
       <c r="G342" s="3"/>
     </row>
-    <row r="343" spans="1:7">
+    <row r="343" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A343" s="1">
         <v>341</v>
       </c>
@@ -4951,7 +4340,7 @@
       <c r="F343" s="3"/>
       <c r="G343" s="3"/>
     </row>
-    <row r="344" spans="1:7">
+    <row r="344" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A344" s="1">
         <v>342</v>
       </c>
@@ -4960,7 +4349,7 @@
       <c r="F344" s="3"/>
       <c r="G344" s="3"/>
     </row>
-    <row r="345" spans="1:7">
+    <row r="345" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A345" s="1">
         <v>343</v>
       </c>
@@ -4969,7 +4358,7 @@
       <c r="F345" s="3"/>
       <c r="G345" s="3"/>
     </row>
-    <row r="346" spans="1:7">
+    <row r="346" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A346" s="1">
         <v>344</v>
       </c>
@@ -4978,7 +4367,7 @@
       <c r="F346" s="3"/>
       <c r="G346" s="3"/>
     </row>
-    <row r="347" spans="1:7">
+    <row r="347" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A347" s="1">
         <v>345</v>
       </c>
@@ -4987,7 +4376,7 @@
       <c r="F347" s="3"/>
       <c r="G347" s="3"/>
     </row>
-    <row r="348" spans="1:7">
+    <row r="348" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A348" s="1">
         <v>346</v>
       </c>
@@ -4996,7 +4385,7 @@
       <c r="F348" s="3"/>
       <c r="G348" s="3"/>
     </row>
-    <row r="349" spans="1:7">
+    <row r="349" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A349" s="1">
         <v>347</v>
       </c>
@@ -5005,7 +4394,7 @@
       <c r="F349" s="3"/>
       <c r="G349" s="3"/>
     </row>
-    <row r="350" spans="1:7">
+    <row r="350" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A350" s="1">
         <v>348</v>
       </c>
@@ -5014,7 +4403,7 @@
       <c r="F350" s="3"/>
       <c r="G350" s="3"/>
     </row>
-    <row r="351" spans="1:7">
+    <row r="351" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A351" s="1">
         <v>349</v>
       </c>
@@ -5023,7 +4412,7 @@
       <c r="F351" s="3"/>
       <c r="G351" s="3"/>
     </row>
-    <row r="352" spans="1:7">
+    <row r="352" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A352" s="1">
         <v>350</v>
       </c>
@@ -5032,7 +4421,7 @@
       <c r="F352" s="3"/>
       <c r="G352" s="3"/>
     </row>
-    <row r="353" spans="1:7">
+    <row r="353" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A353" s="1">
         <v>351</v>
       </c>
@@ -5041,7 +4430,7 @@
       <c r="F353" s="3"/>
       <c r="G353" s="3"/>
     </row>
-    <row r="354" spans="1:7">
+    <row r="354" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A354" s="1">
         <v>352</v>
       </c>
@@ -5050,7 +4439,7 @@
       <c r="F354" s="3"/>
       <c r="G354" s="3"/>
     </row>
-    <row r="355" spans="1:7">
+    <row r="355" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A355" s="1">
         <v>353</v>
       </c>
@@ -5059,7 +4448,7 @@
       <c r="F355" s="3"/>
       <c r="G355" s="3"/>
     </row>
-    <row r="356" spans="1:7">
+    <row r="356" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A356" s="1">
         <v>354</v>
       </c>
@@ -5068,7 +4457,7 @@
       <c r="F356" s="3"/>
       <c r="G356" s="3"/>
     </row>
-    <row r="357" spans="1:7">
+    <row r="357" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A357" s="1">
         <v>355</v>
       </c>
@@ -5077,7 +4466,7 @@
       <c r="F357" s="3"/>
       <c r="G357" s="3"/>
     </row>
-    <row r="358" spans="1:7">
+    <row r="358" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A358" s="1">
         <v>356</v>
       </c>
@@ -5086,7 +4475,7 @@
       <c r="F358" s="3"/>
       <c r="G358" s="3"/>
     </row>
-    <row r="359" spans="1:7">
+    <row r="359" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A359" s="1">
         <v>357</v>
       </c>
@@ -5095,7 +4484,7 @@
       <c r="F359" s="3"/>
       <c r="G359" s="3"/>
     </row>
-    <row r="360" spans="1:7">
+    <row r="360" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A360" s="1">
         <v>358</v>
       </c>
@@ -5104,7 +4493,7 @@
       <c r="F360" s="3"/>
       <c r="G360" s="3"/>
     </row>
-    <row r="361" spans="1:7">
+    <row r="361" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A361" s="1">
         <v>359</v>
       </c>
@@ -5113,7 +4502,7 @@
       <c r="F361" s="3"/>
       <c r="G361" s="3"/>
     </row>
-    <row r="362" spans="1:7">
+    <row r="362" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A362" s="1">
         <v>360</v>
       </c>
@@ -5122,7 +4511,7 @@
       <c r="F362" s="3"/>
       <c r="G362" s="3"/>
     </row>
-    <row r="363" spans="1:7">
+    <row r="363" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A363" s="1">
         <v>361</v>
       </c>
@@ -5131,7 +4520,7 @@
       <c r="F363" s="3"/>
       <c r="G363" s="3"/>
     </row>
-    <row r="364" spans="1:7">
+    <row r="364" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A364" s="1">
         <v>362</v>
       </c>
@@ -5140,7 +4529,7 @@
       <c r="F364" s="3"/>
       <c r="G364" s="3"/>
     </row>
-    <row r="365" spans="1:7">
+    <row r="365" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A365" s="1">
         <v>363</v>
       </c>
@@ -5149,7 +4538,7 @@
       <c r="F365" s="3"/>
       <c r="G365" s="3"/>
     </row>
-    <row r="366" spans="1:7">
+    <row r="366" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A366" s="1">
         <v>364</v>
       </c>
@@ -5158,7 +4547,7 @@
       <c r="F366" s="3"/>
       <c r="G366" s="3"/>
     </row>
-    <row r="367" spans="1:7">
+    <row r="367" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A367" s="1">
         <v>365</v>
       </c>
@@ -5167,7 +4556,7 @@
       <c r="F367" s="3"/>
       <c r="G367" s="3"/>
     </row>
-    <row r="368" spans="1:7">
+    <row r="368" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A368" s="1">
         <v>366</v>
       </c>
@@ -5176,7 +4565,7 @@
       <c r="F368" s="3"/>
       <c r="G368" s="3"/>
     </row>
-    <row r="369" spans="1:7">
+    <row r="369" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A369" s="1">
         <v>367</v>
       </c>
@@ -5185,7 +4574,7 @@
       <c r="F369" s="3"/>
       <c r="G369" s="3"/>
     </row>
-    <row r="370" spans="1:7">
+    <row r="370" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A370" s="1">
         <v>368</v>
       </c>
@@ -5194,7 +4583,7 @@
       <c r="F370" s="3"/>
       <c r="G370" s="3"/>
     </row>
-    <row r="371" spans="1:7">
+    <row r="371" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A371" s="1">
         <v>369</v>
       </c>
@@ -5203,7 +4592,7 @@
       <c r="F371" s="3"/>
       <c r="G371" s="3"/>
     </row>
-    <row r="372" spans="1:7">
+    <row r="372" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A372" s="1">
         <v>370</v>
       </c>
@@ -5212,7 +4601,7 @@
       <c r="F372" s="3"/>
       <c r="G372" s="3"/>
     </row>
-    <row r="373" spans="1:7">
+    <row r="373" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A373" s="1">
         <v>371</v>
       </c>
@@ -5221,7 +4610,7 @@
       <c r="F373" s="3"/>
       <c r="G373" s="3"/>
     </row>
-    <row r="374" spans="1:7">
+    <row r="374" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A374" s="1">
         <v>372</v>
       </c>
@@ -5230,7 +4619,7 @@
       <c r="F374" s="3"/>
       <c r="G374" s="3"/>
     </row>
-    <row r="375" spans="1:7">
+    <row r="375" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A375" s="1">
         <v>373</v>
       </c>
@@ -5239,7 +4628,7 @@
       <c r="F375" s="3"/>
       <c r="G375" s="3"/>
     </row>
-    <row r="376" spans="1:7">
+    <row r="376" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A376" s="1">
         <v>374</v>
       </c>
@@ -5248,7 +4637,7 @@
       <c r="F376" s="3"/>
       <c r="G376" s="3"/>
     </row>
-    <row r="377" spans="1:7">
+    <row r="377" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A377" s="1">
         <v>375</v>
       </c>
@@ -5257,7 +4646,7 @@
       <c r="F377" s="3"/>
       <c r="G377" s="3"/>
     </row>
-    <row r="378" spans="1:7">
+    <row r="378" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A378" s="1">
         <v>376</v>
       </c>
@@ -5266,7 +4655,7 @@
       <c r="F378" s="3"/>
       <c r="G378" s="3"/>
     </row>
-    <row r="379" spans="1:7">
+    <row r="379" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A379" s="1">
         <v>377</v>
       </c>
@@ -5275,7 +4664,7 @@
       <c r="F379" s="3"/>
       <c r="G379" s="3"/>
     </row>
-    <row r="380" spans="1:7">
+    <row r="380" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A380" s="1">
         <v>378</v>
       </c>
@@ -5284,7 +4673,7 @@
       <c r="F380" s="3"/>
       <c r="G380" s="3"/>
     </row>
-    <row r="381" spans="1:7">
+    <row r="381" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A381" s="1">
         <v>379</v>
       </c>
@@ -5293,7 +4682,7 @@
       <c r="F381" s="3"/>
       <c r="G381" s="3"/>
     </row>
-    <row r="382" spans="1:7">
+    <row r="382" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A382" s="1">
         <v>380</v>
       </c>
@@ -5302,7 +4691,7 @@
       <c r="F382" s="3"/>
       <c r="G382" s="3"/>
     </row>
-    <row r="383" spans="1:7">
+    <row r="383" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A383" s="1">
         <v>381</v>
       </c>
@@ -5311,7 +4700,7 @@
       <c r="F383" s="3"/>
       <c r="G383" s="3"/>
     </row>
-    <row r="384" spans="1:7">
+    <row r="384" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A384" s="1">
         <v>382</v>
       </c>
@@ -5320,7 +4709,7 @@
       <c r="F384" s="3"/>
       <c r="G384" s="3"/>
     </row>
-    <row r="385" spans="1:7">
+    <row r="385" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A385" s="1">
         <v>383</v>
       </c>
@@ -5329,7 +4718,7 @@
       <c r="F385" s="3"/>
       <c r="G385" s="3"/>
     </row>
-    <row r="386" spans="1:7">
+    <row r="386" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A386" s="1">
         <v>384</v>
       </c>
@@ -5338,7 +4727,7 @@
       <c r="F386" s="3"/>
       <c r="G386" s="3"/>
     </row>
-    <row r="387" spans="1:7">
+    <row r="387" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A387" s="1">
         <v>385</v>
       </c>
@@ -5347,7 +4736,7 @@
       <c r="F387" s="3"/>
       <c r="G387" s="3"/>
     </row>
-    <row r="388" spans="1:7">
+    <row r="388" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A388" s="1">
         <v>386</v>
       </c>
@@ -5356,7 +4745,7 @@
       <c r="F388" s="3"/>
       <c r="G388" s="3"/>
     </row>
-    <row r="389" spans="1:7">
+    <row r="389" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A389" s="1">
         <v>387</v>
       </c>
@@ -5365,7 +4754,7 @@
       <c r="F389" s="3"/>
       <c r="G389" s="3"/>
     </row>
-    <row r="390" spans="1:7">
+    <row r="390" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A390" s="1">
         <v>388</v>
       </c>
@@ -5374,7 +4763,7 @@
       <c r="F390" s="3"/>
       <c r="G390" s="3"/>
     </row>
-    <row r="391" spans="1:7">
+    <row r="391" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A391" s="1">
         <v>389</v>
       </c>
@@ -5383,7 +4772,7 @@
       <c r="F391" s="3"/>
       <c r="G391" s="3"/>
     </row>
-    <row r="392" spans="1:7">
+    <row r="392" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A392" s="1">
         <v>390</v>
       </c>
@@ -5392,7 +4781,7 @@
       <c r="F392" s="3"/>
       <c r="G392" s="3"/>
     </row>
-    <row r="393" spans="1:7">
+    <row r="393" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A393" s="1">
         <v>391</v>
       </c>
@@ -5401,7 +4790,7 @@
       <c r="F393" s="3"/>
       <c r="G393" s="3"/>
     </row>
-    <row r="394" spans="1:7">
+    <row r="394" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A394" s="1">
         <v>392</v>
       </c>
@@ -5410,7 +4799,7 @@
       <c r="F394" s="3"/>
       <c r="G394" s="3"/>
     </row>
-    <row r="395" spans="1:7">
+    <row r="395" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A395" s="1">
         <v>393</v>
       </c>
@@ -5419,7 +4808,7 @@
       <c r="F395" s="3"/>
       <c r="G395" s="3"/>
     </row>
-    <row r="396" spans="1:7">
+    <row r="396" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A396" s="1">
         <v>394</v>
       </c>
@@ -5428,7 +4817,7 @@
       <c r="F396" s="3"/>
       <c r="G396" s="3"/>
     </row>
-    <row r="397" spans="1:7">
+    <row r="397" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A397" s="1">
         <v>395</v>
       </c>
@@ -5437,7 +4826,7 @@
       <c r="F397" s="3"/>
       <c r="G397" s="3"/>
     </row>
-    <row r="398" spans="1:7">
+    <row r="398" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A398" s="1">
         <v>396</v>
       </c>
@@ -5446,7 +4835,7 @@
       <c r="F398" s="3"/>
       <c r="G398" s="3"/>
     </row>
-    <row r="399" spans="1:7">
+    <row r="399" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A399" s="1">
         <v>397</v>
       </c>
@@ -5455,7 +4844,7 @@
       <c r="F399" s="3"/>
       <c r="G399" s="3"/>
     </row>
-    <row r="400" spans="1:7">
+    <row r="400" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A400" s="1">
         <v>398</v>
       </c>
@@ -5464,7 +4853,7 @@
       <c r="F400" s="3"/>
       <c r="G400" s="3"/>
     </row>
-    <row r="401" spans="1:7">
+    <row r="401" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A401" s="1">
         <v>399</v>
       </c>
@@ -5473,7 +4862,7 @@
       <c r="F401" s="3"/>
       <c r="G401" s="3"/>
     </row>
-    <row r="402" spans="1:7">
+    <row r="402" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A402" s="1">
         <v>400</v>
       </c>
@@ -5482,7 +4871,7 @@
       <c r="F402" s="3"/>
       <c r="G402" s="3"/>
     </row>
-    <row r="403" spans="1:7">
+    <row r="403" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A403" s="1">
         <v>401</v>
       </c>
@@ -5491,7 +4880,7 @@
       <c r="F403" s="3"/>
       <c r="G403" s="3"/>
     </row>
-    <row r="404" spans="1:7">
+    <row r="404" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A404" s="1">
         <v>402</v>
       </c>
@@ -5500,7 +4889,7 @@
       <c r="F404" s="3"/>
       <c r="G404" s="3"/>
     </row>
-    <row r="405" spans="1:7">
+    <row r="405" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A405" s="1">
         <v>403</v>
       </c>
@@ -5509,7 +4898,7 @@
       <c r="F405" s="3"/>
       <c r="G405" s="3"/>
     </row>
-    <row r="406" spans="1:7">
+    <row r="406" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A406" s="1">
         <v>404</v>
       </c>
@@ -5518,7 +4907,7 @@
       <c r="F406" s="3"/>
       <c r="G406" s="3"/>
     </row>
-    <row r="407" spans="1:7">
+    <row r="407" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A407" s="1">
         <v>405</v>
       </c>
@@ -5527,7 +4916,7 @@
       <c r="F407" s="3"/>
       <c r="G407" s="3"/>
     </row>
-    <row r="408" spans="1:7">
+    <row r="408" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A408" s="1">
         <v>406</v>
       </c>
@@ -5536,7 +4925,7 @@
       <c r="F408" s="3"/>
       <c r="G408" s="3"/>
     </row>
-    <row r="409" spans="1:7">
+    <row r="409" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A409" s="1">
         <v>407</v>
       </c>
@@ -5545,7 +4934,7 @@
       <c r="F409" s="3"/>
       <c r="G409" s="3"/>
     </row>
-    <row r="410" spans="1:7">
+    <row r="410" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A410" s="1">
         <v>408</v>
       </c>
@@ -5554,7 +4943,7 @@
       <c r="F410" s="3"/>
       <c r="G410" s="3"/>
     </row>
-    <row r="411" spans="1:7">
+    <row r="411" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A411" s="1">
         <v>409</v>
       </c>
@@ -5563,7 +4952,7 @@
       <c r="F411" s="3"/>
       <c r="G411" s="3"/>
     </row>
-    <row r="412" spans="1:7">
+    <row r="412" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A412" s="1">
         <v>410</v>
       </c>
@@ -5572,7 +4961,7 @@
       <c r="F412" s="3"/>
       <c r="G412" s="3"/>
     </row>
-    <row r="413" spans="1:7">
+    <row r="413" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A413" s="1">
         <v>411</v>
       </c>
@@ -5581,7 +4970,7 @@
       <c r="F413" s="3"/>
       <c r="G413" s="3"/>
     </row>
-    <row r="414" spans="1:7">
+    <row r="414" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A414" s="1">
         <v>412</v>
       </c>
@@ -5590,7 +4979,7 @@
       <c r="F414" s="3"/>
       <c r="G414" s="3"/>
     </row>
-    <row r="415" spans="1:7">
+    <row r="415" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A415" s="1">
         <v>413</v>
       </c>
@@ -5599,7 +4988,7 @@
       <c r="F415" s="3"/>
       <c r="G415" s="3"/>
     </row>
-    <row r="416" spans="1:7">
+    <row r="416" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A416" s="1">
         <v>414</v>
       </c>
@@ -5608,7 +4997,7 @@
       <c r="F416" s="3"/>
       <c r="G416" s="3"/>
     </row>
-    <row r="417" spans="1:7">
+    <row r="417" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A417" s="1">
         <v>415</v>
       </c>
@@ -5617,7 +5006,7 @@
       <c r="F417" s="3"/>
       <c r="G417" s="3"/>
     </row>
-    <row r="418" spans="1:7">
+    <row r="418" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A418" s="1">
         <v>416</v>
       </c>
@@ -5626,7 +5015,7 @@
       <c r="F418" s="3"/>
       <c r="G418" s="3"/>
     </row>
-    <row r="419" spans="1:7">
+    <row r="419" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A419" s="1">
         <v>417</v>
       </c>
@@ -5635,7 +5024,7 @@
       <c r="F419" s="3"/>
       <c r="G419" s="3"/>
     </row>
-    <row r="420" spans="1:7">
+    <row r="420" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A420" s="1">
         <v>418</v>
       </c>
@@ -5644,7 +5033,7 @@
       <c r="F420" s="3"/>
       <c r="G420" s="3"/>
     </row>
-    <row r="421" spans="1:7">
+    <row r="421" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A421" s="1">
         <v>419</v>
       </c>
@@ -5653,7 +5042,7 @@
       <c r="F421" s="3"/>
       <c r="G421" s="3"/>
     </row>
-    <row r="422" spans="1:7">
+    <row r="422" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A422" s="1">
         <v>420</v>
       </c>
@@ -5662,7 +5051,7 @@
       <c r="F422" s="3"/>
       <c r="G422" s="3"/>
     </row>
-    <row r="423" spans="1:7">
+    <row r="423" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A423" s="1">
         <v>421</v>
       </c>
@@ -5671,7 +5060,7 @@
       <c r="F423" s="3"/>
       <c r="G423" s="3"/>
     </row>
-    <row r="424" spans="1:7">
+    <row r="424" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A424" s="1">
         <v>422</v>
       </c>
@@ -5680,7 +5069,7 @@
       <c r="F424" s="3"/>
       <c r="G424" s="3"/>
     </row>
-    <row r="425" spans="1:7">
+    <row r="425" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A425" s="1">
         <v>423</v>
       </c>
@@ -5689,7 +5078,7 @@
       <c r="F425" s="3"/>
       <c r="G425" s="3"/>
     </row>
-    <row r="426" spans="1:7">
+    <row r="426" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A426" s="1">
         <v>424</v>
       </c>
@@ -5698,7 +5087,7 @@
       <c r="F426" s="3"/>
       <c r="G426" s="3"/>
     </row>
-    <row r="427" spans="1:7">
+    <row r="427" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A427" s="1">
         <v>425</v>
       </c>
@@ -5707,7 +5096,7 @@
       <c r="F427" s="3"/>
       <c r="G427" s="3"/>
     </row>
-    <row r="428" spans="1:7">
+    <row r="428" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A428" s="1">
         <v>426</v>
       </c>
@@ -5716,7 +5105,7 @@
       <c r="F428" s="3"/>
       <c r="G428" s="3"/>
     </row>
-    <row r="429" spans="1:7">
+    <row r="429" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A429" s="1">
         <v>427</v>
       </c>
@@ -5725,7 +5114,7 @@
       <c r="F429" s="3"/>
       <c r="G429" s="3"/>
     </row>
-    <row r="430" spans="1:7">
+    <row r="430" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A430" s="1">
         <v>428</v>
       </c>
@@ -5734,7 +5123,7 @@
       <c r="F430" s="3"/>
       <c r="G430" s="3"/>
     </row>
-    <row r="431" spans="1:7">
+    <row r="431" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A431" s="1">
         <v>429</v>
       </c>
@@ -5743,7 +5132,7 @@
       <c r="F431" s="3"/>
       <c r="G431" s="3"/>
     </row>
-    <row r="432" spans="1:7">
+    <row r="432" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A432" s="1">
         <v>430</v>
       </c>
@@ -5752,7 +5141,7 @@
       <c r="F432" s="3"/>
       <c r="G432" s="3"/>
     </row>
-    <row r="433" spans="1:7">
+    <row r="433" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A433" s="1">
         <v>431</v>
       </c>
@@ -5761,7 +5150,7 @@
       <c r="F433" s="3"/>
       <c r="G433" s="3"/>
     </row>
-    <row r="434" spans="1:7">
+    <row r="434" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A434" s="1">
         <v>432</v>
       </c>
@@ -5770,7 +5159,7 @@
       <c r="F434" s="3"/>
       <c r="G434" s="3"/>
     </row>
-    <row r="435" spans="1:7">
+    <row r="435" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A435" s="1">
         <v>433</v>
       </c>
@@ -5779,7 +5168,7 @@
       <c r="F435" s="3"/>
       <c r="G435" s="3"/>
     </row>
-    <row r="436" spans="1:7">
+    <row r="436" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A436" s="1">
         <v>434</v>
       </c>
@@ -5788,7 +5177,7 @@
       <c r="F436" s="3"/>
       <c r="G436" s="3"/>
     </row>
-    <row r="437" spans="1:7">
+    <row r="437" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A437" s="1">
         <v>435</v>
       </c>
@@ -5797,7 +5186,7 @@
       <c r="F437" s="3"/>
       <c r="G437" s="3"/>
     </row>
-    <row r="438" spans="1:7">
+    <row r="438" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A438" s="1">
         <v>436</v>
       </c>
@@ -5806,7 +5195,7 @@
       <c r="F438" s="3"/>
       <c r="G438" s="3"/>
     </row>
-    <row r="439" spans="1:7">
+    <row r="439" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A439" s="1">
         <v>437</v>
       </c>
@@ -5815,7 +5204,7 @@
       <c r="F439" s="3"/>
       <c r="G439" s="3"/>
     </row>
-    <row r="440" spans="1:7">
+    <row r="440" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A440" s="1">
         <v>438</v>
       </c>
@@ -5824,7 +5213,7 @@
       <c r="F440" s="3"/>
       <c r="G440" s="3"/>
     </row>
-    <row r="441" spans="1:7">
+    <row r="441" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A441" s="1">
         <v>439</v>
       </c>
@@ -5833,7 +5222,7 @@
       <c r="F441" s="3"/>
       <c r="G441" s="3"/>
     </row>
-    <row r="442" spans="1:7">
+    <row r="442" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A442" s="1">
         <v>440</v>
       </c>
@@ -5842,7 +5231,7 @@
       <c r="F442" s="3"/>
       <c r="G442" s="3"/>
     </row>
-    <row r="443" spans="1:7">
+    <row r="443" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A443" s="1">
         <v>441</v>
       </c>
@@ -5851,7 +5240,7 @@
       <c r="F443" s="3"/>
       <c r="G443" s="3"/>
     </row>
-    <row r="444" spans="1:7">
+    <row r="444" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A444" s="1">
         <v>442</v>
       </c>
@@ -5860,7 +5249,7 @@
       <c r="F444" s="3"/>
       <c r="G444" s="3"/>
     </row>
-    <row r="445" spans="1:7">
+    <row r="445" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A445" s="1">
         <v>443</v>
       </c>
@@ -5869,7 +5258,7 @@
       <c r="F445" s="3"/>
       <c r="G445" s="3"/>
     </row>
-    <row r="446" spans="1:7">
+    <row r="446" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A446" s="1">
         <v>444</v>
       </c>
@@ -5878,7 +5267,7 @@
       <c r="F446" s="3"/>
       <c r="G446" s="3"/>
     </row>
-    <row r="447" spans="1:7">
+    <row r="447" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A447" s="1">
         <v>445</v>
       </c>
@@ -5887,7 +5276,7 @@
       <c r="F447" s="3"/>
       <c r="G447" s="3"/>
     </row>
-    <row r="448" spans="1:7">
+    <row r="448" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A448" s="1">
         <v>446</v>
       </c>
@@ -5896,7 +5285,7 @@
       <c r="F448" s="3"/>
       <c r="G448" s="3"/>
     </row>
-    <row r="449" spans="1:7">
+    <row r="449" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A449" s="1">
         <v>447</v>
       </c>
@@ -5905,7 +5294,7 @@
       <c r="F449" s="3"/>
       <c r="G449" s="3"/>
     </row>
-    <row r="450" spans="1:7">
+    <row r="450" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A450" s="1">
         <v>448</v>
       </c>
@@ -5914,7 +5303,7 @@
       <c r="F450" s="3"/>
       <c r="G450" s="3"/>
     </row>
-    <row r="451" spans="1:7">
+    <row r="451" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A451" s="1">
         <v>449</v>
       </c>
@@ -5923,7 +5312,7 @@
       <c r="F451" s="3"/>
       <c r="G451" s="3"/>
     </row>
-    <row r="452" spans="1:7">
+    <row r="452" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A452" s="1">
         <v>450</v>
       </c>
@@ -5932,7 +5321,7 @@
       <c r="F452" s="3"/>
       <c r="G452" s="3"/>
     </row>
-    <row r="453" spans="1:7">
+    <row r="453" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A453" s="1">
         <v>451</v>
       </c>
@@ -5941,7 +5330,7 @@
       <c r="F453" s="3"/>
       <c r="G453" s="3"/>
     </row>
-    <row r="454" spans="1:7">
+    <row r="454" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A454" s="1">
         <v>452</v>
       </c>
@@ -5950,7 +5339,7 @@
       <c r="F454" s="3"/>
       <c r="G454" s="3"/>
     </row>
-    <row r="455" spans="1:7">
+    <row r="455" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A455" s="1">
         <v>453</v>
       </c>
@@ -5959,7 +5348,7 @@
       <c r="F455" s="3"/>
       <c r="G455" s="3"/>
     </row>
-    <row r="456" spans="1:7">
+    <row r="456" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A456" s="1">
         <v>454</v>
       </c>
@@ -5968,7 +5357,7 @@
       <c r="F456" s="3"/>
       <c r="G456" s="3"/>
     </row>
-    <row r="457" spans="1:7">
+    <row r="457" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A457" s="1">
         <v>455</v>
       </c>
@@ -5977,7 +5366,7 @@
       <c r="F457" s="3"/>
       <c r="G457" s="3"/>
     </row>
-    <row r="458" spans="1:7">
+    <row r="458" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A458" s="1">
         <v>456</v>
       </c>
@@ -5986,7 +5375,7 @@
       <c r="F458" s="3"/>
       <c r="G458" s="3"/>
     </row>
-    <row r="459" spans="1:7">
+    <row r="459" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A459" s="1">
         <v>457</v>
       </c>
@@ -5995,7 +5384,7 @@
       <c r="F459" s="3"/>
       <c r="G459" s="3"/>
     </row>
-    <row r="460" spans="1:7">
+    <row r="460" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A460" s="1">
         <v>458</v>
       </c>
@@ -6004,7 +5393,7 @@
       <c r="F460" s="3"/>
       <c r="G460" s="3"/>
     </row>
-    <row r="461" spans="1:7">
+    <row r="461" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A461" s="1">
         <v>459</v>
       </c>
@@ -6013,7 +5402,7 @@
       <c r="F461" s="3"/>
       <c r="G461" s="3"/>
     </row>
-    <row r="462" spans="1:7">
+    <row r="462" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A462" s="1">
         <v>460</v>
       </c>
@@ -6022,7 +5411,7 @@
       <c r="F462" s="3"/>
       <c r="G462" s="3"/>
     </row>
-    <row r="463" spans="1:7">
+    <row r="463" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A463" s="1">
         <v>461</v>
       </c>
@@ -6031,7 +5420,7 @@
       <c r="F463" s="3"/>
       <c r="G463" s="3"/>
     </row>
-    <row r="464" spans="1:7">
+    <row r="464" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A464" s="1">
         <v>462</v>
       </c>
@@ -6040,7 +5429,7 @@
       <c r="F464" s="3"/>
       <c r="G464" s="3"/>
     </row>
-    <row r="465" spans="1:7">
+    <row r="465" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A465" s="1">
         <v>463</v>
       </c>
@@ -6049,7 +5438,7 @@
       <c r="F465" s="3"/>
       <c r="G465" s="3"/>
     </row>
-    <row r="466" spans="1:7">
+    <row r="466" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A466" s="1">
         <v>464</v>
       </c>
@@ -6058,7 +5447,7 @@
       <c r="F466" s="3"/>
       <c r="G466" s="3"/>
     </row>
-    <row r="467" spans="1:7">
+    <row r="467" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A467" s="1">
         <v>465</v>
       </c>
@@ -6068,38 +5457,37 @@
       <c r="G467" s="3"/>
     </row>
   </sheetData>
-  <pageMargins left="0.699305555555556" right="0.699305555555556" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <phoneticPr fontId="1" type="noConversion"/>
+  <pageMargins left="0.69930555555555596" right="0.69930555555555596" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" orientation="portrait"/>
-  <headerFooter/>
 </worksheet>
 </file>
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData">
-  <sheetPr/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0200-000000000000}">
   <dimension ref="A1:J103"/>
   <sheetViews>
-    <sheetView topLeftCell="A19" workbookViewId="0">
-      <selection activeCell="A29" sqref="A29"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="C12" sqref="C12:C17"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="9" defaultRowHeight="13.5"/>
+  <sheetFormatPr defaultColWidth="9" defaultRowHeight="14.4" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="12.375" style="1" customWidth="1"/>
-    <col min="2" max="2" width="35.8916666666667" style="1" customWidth="1"/>
-    <col min="3" max="3" width="22.675" style="1" customWidth="1"/>
-    <col min="4" max="4" width="21.6" style="1" customWidth="1"/>
-    <col min="5" max="5" width="23.2083333333333" style="1" customWidth="1"/>
-    <col min="6" max="6" width="21.5" style="1" customWidth="1"/>
-    <col min="7" max="7" width="14.875" style="1" customWidth="1"/>
-    <col min="8" max="8" width="20.5" style="1" customWidth="1"/>
-    <col min="9" max="9" width="21.75" style="1" customWidth="1"/>
-    <col min="10" max="10" width="18.625" style="1" customWidth="1"/>
-    <col min="11" max="11" width="10.625" style="1" customWidth="1"/>
+    <col min="1" max="1" width="12.33203125" style="1" customWidth="1"/>
+    <col min="2" max="2" width="35.88671875" style="1" customWidth="1"/>
+    <col min="3" max="3" width="22.6640625" style="1" customWidth="1"/>
+    <col min="4" max="4" width="21.5546875" style="1" customWidth="1"/>
+    <col min="5" max="5" width="23.21875" style="1" customWidth="1"/>
+    <col min="6" max="6" width="21.44140625" style="1" customWidth="1"/>
+    <col min="7" max="7" width="14.88671875" style="1" customWidth="1"/>
+    <col min="8" max="8" width="20.44140625" style="1" customWidth="1"/>
+    <col min="9" max="9" width="21.77734375" style="1" customWidth="1"/>
+    <col min="10" max="10" width="18.6640625" style="1" customWidth="1"/>
+    <col min="11" max="11" width="10.6640625" style="1" customWidth="1"/>
     <col min="12" max="16384" width="9" style="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:10">
+    <row r="1" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A1" s="1" t="s">
         <v>0</v>
       </c>
@@ -6131,7 +5519,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="2" spans="1:10">
+    <row r="2" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A2" s="1" t="s">
         <v>54</v>
       </c>
@@ -6163,7 +5551,7 @@
         <v>13</v>
       </c>
     </row>
-    <row r="3" spans="1:10">
+    <row r="3" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A3" s="1">
         <v>1</v>
       </c>
@@ -6195,7 +5583,7 @@
         <v>73</v>
       </c>
     </row>
-    <row r="4" spans="1:10">
+    <row r="4" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A4" s="1">
         <v>2</v>
       </c>
@@ -6227,7 +5615,7 @@
         <v>73</v>
       </c>
     </row>
-    <row r="5" spans="1:10">
+    <row r="5" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A5" s="1">
         <v>3</v>
       </c>
@@ -6259,7 +5647,7 @@
         <v>73</v>
       </c>
     </row>
-    <row r="6" spans="1:10">
+    <row r="6" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A6" s="1">
         <v>4</v>
       </c>
@@ -6291,7 +5679,7 @@
         <v>73</v>
       </c>
     </row>
-    <row r="7" spans="1:10">
+    <row r="7" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A7" s="1">
         <v>5</v>
       </c>
@@ -6323,7 +5711,7 @@
         <v>73</v>
       </c>
     </row>
-    <row r="8" spans="1:10">
+    <row r="8" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A8" s="1">
         <v>6</v>
       </c>
@@ -6355,7 +5743,7 @@
         <v>73</v>
       </c>
     </row>
-    <row r="9" spans="1:10">
+    <row r="9" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A9" s="1">
         <v>7</v>
       </c>
@@ -6387,7 +5775,7 @@
         <v>73</v>
       </c>
     </row>
-    <row r="10" spans="1:10">
+    <row r="10" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A10" s="1">
         <v>8</v>
       </c>
@@ -6419,7 +5807,7 @@
         <v>73</v>
       </c>
     </row>
-    <row r="11" spans="1:10">
+    <row r="11" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A11" s="1">
         <v>9</v>
       </c>
@@ -6451,7 +5839,7 @@
         <v>73</v>
       </c>
     </row>
-    <row r="12" spans="1:10">
+    <row r="12" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A12" s="1">
         <v>10</v>
       </c>
@@ -6483,7 +5871,7 @@
         <v>73</v>
       </c>
     </row>
-    <row r="13" spans="1:10">
+    <row r="13" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A13" s="1">
         <v>11</v>
       </c>
@@ -6515,7 +5903,7 @@
         <v>73</v>
       </c>
     </row>
-    <row r="14" spans="1:10">
+    <row r="14" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A14" s="1">
         <v>12</v>
       </c>
@@ -6547,7 +5935,7 @@
         <v>73</v>
       </c>
     </row>
-    <row r="15" spans="1:10">
+    <row r="15" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A15" s="1">
         <v>13</v>
       </c>
@@ -6579,7 +5967,7 @@
         <v>73</v>
       </c>
     </row>
-    <row r="16" spans="1:10">
+    <row r="16" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A16" s="1">
         <v>14</v>
       </c>
@@ -6611,7 +5999,7 @@
         <v>73</v>
       </c>
     </row>
-    <row r="17" spans="1:10">
+    <row r="17" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A17" s="1">
         <v>15</v>
       </c>
@@ -6643,7 +6031,7 @@
         <v>73</v>
       </c>
     </row>
-    <row r="18" spans="1:10">
+    <row r="18" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A18" s="1">
         <v>16</v>
       </c>
@@ -6675,7 +6063,7 @@
         <v>73</v>
       </c>
     </row>
-    <row r="19" spans="1:10">
+    <row r="19" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A19" s="1">
         <v>17</v>
       </c>
@@ -6707,7 +6095,7 @@
         <v>73</v>
       </c>
     </row>
-    <row r="20" spans="1:10">
+    <row r="20" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A20" s="1">
         <v>18</v>
       </c>
@@ -6739,7 +6127,7 @@
         <v>73</v>
       </c>
     </row>
-    <row r="21" spans="1:10">
+    <row r="21" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A21" s="1">
         <v>19</v>
       </c>
@@ -6771,7 +6159,7 @@
         <v>73</v>
       </c>
     </row>
-    <row r="22" spans="1:10">
+    <row r="22" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A22" s="1">
         <v>20</v>
       </c>
@@ -6803,7 +6191,7 @@
         <v>73</v>
       </c>
     </row>
-    <row r="23" spans="1:10">
+    <row r="23" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A23" s="1">
         <v>21</v>
       </c>
@@ -6835,7 +6223,7 @@
         <v>73</v>
       </c>
     </row>
-    <row r="24" spans="1:10">
+    <row r="24" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A24" s="1">
         <v>22</v>
       </c>
@@ -6867,7 +6255,7 @@
         <v>73</v>
       </c>
     </row>
-    <row r="25" spans="1:10">
+    <row r="25" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A25" s="1">
         <v>23</v>
       </c>
@@ -6899,7 +6287,7 @@
         <v>73</v>
       </c>
     </row>
-    <row r="26" spans="1:10">
+    <row r="26" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A26" s="1">
         <v>24</v>
       </c>
@@ -6931,7 +6319,7 @@
         <v>73</v>
       </c>
     </row>
-    <row r="27" spans="1:10">
+    <row r="27" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A27" s="1">
         <v>25</v>
       </c>
@@ -6963,7 +6351,7 @@
         <v>73</v>
       </c>
     </row>
-    <row r="28" spans="1:10">
+    <row r="28" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A28" s="1">
         <v>26</v>
       </c>
@@ -6995,7 +6383,7 @@
         <v>73</v>
       </c>
     </row>
-    <row r="29" spans="1:10">
+    <row r="29" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A29" s="1">
         <v>27</v>
       </c>
@@ -7027,7 +6415,7 @@
         <v>73</v>
       </c>
     </row>
-    <row r="30" spans="1:10">
+    <row r="30" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A30" s="1">
         <v>28</v>
       </c>
@@ -7059,7 +6447,7 @@
         <v>73</v>
       </c>
     </row>
-    <row r="31" spans="1:10">
+    <row r="31" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A31" s="1">
         <v>29</v>
       </c>
@@ -7091,7 +6479,7 @@
         <v>73</v>
       </c>
     </row>
-    <row r="32" spans="1:10">
+    <row r="32" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A32" s="1">
         <v>30</v>
       </c>
@@ -7123,7 +6511,7 @@
         <v>73</v>
       </c>
     </row>
-    <row r="33" spans="1:10">
+    <row r="33" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A33" s="1">
         <v>31</v>
       </c>
@@ -7155,7 +6543,7 @@
         <v>73</v>
       </c>
     </row>
-    <row r="34" spans="1:10">
+    <row r="34" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A34" s="1">
         <v>32</v>
       </c>
@@ -7187,7 +6575,7 @@
         <v>73</v>
       </c>
     </row>
-    <row r="35" spans="1:10">
+    <row r="35" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A35" s="1">
         <v>33</v>
       </c>
@@ -7219,7 +6607,7 @@
         <v>73</v>
       </c>
     </row>
-    <row r="36" spans="1:10">
+    <row r="36" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A36" s="1">
         <v>34</v>
       </c>
@@ -7251,7 +6639,7 @@
         <v>73</v>
       </c>
     </row>
-    <row r="37" spans="1:10">
+    <row r="37" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A37" s="1">
         <v>35</v>
       </c>
@@ -7283,7 +6671,7 @@
         <v>73</v>
       </c>
     </row>
-    <row r="38" spans="1:10">
+    <row r="38" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A38" s="1">
         <v>36</v>
       </c>
@@ -7315,7 +6703,7 @@
         <v>73</v>
       </c>
     </row>
-    <row r="39" spans="1:10">
+    <row r="39" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A39" s="1">
         <v>37</v>
       </c>
@@ -7347,7 +6735,7 @@
         <v>73</v>
       </c>
     </row>
-    <row r="40" spans="1:10">
+    <row r="40" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A40" s="1">
         <v>38</v>
       </c>
@@ -7379,7 +6767,7 @@
         <v>73</v>
       </c>
     </row>
-    <row r="41" spans="1:10">
+    <row r="41" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A41" s="1">
         <v>39</v>
       </c>
@@ -7411,7 +6799,7 @@
         <v>73</v>
       </c>
     </row>
-    <row r="42" spans="1:10">
+    <row r="42" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A42" s="1">
         <v>40</v>
       </c>
@@ -7443,7 +6831,7 @@
         <v>73</v>
       </c>
     </row>
-    <row r="43" spans="1:10">
+    <row r="43" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A43" s="1">
         <v>41</v>
       </c>
@@ -7475,7 +6863,7 @@
         <v>73</v>
       </c>
     </row>
-    <row r="44" spans="1:10">
+    <row r="44" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A44" s="1">
         <v>42</v>
       </c>
@@ -7507,7 +6895,7 @@
         <v>73</v>
       </c>
     </row>
-    <row r="45" spans="1:10">
+    <row r="45" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A45" s="1">
         <v>43</v>
       </c>
@@ -7539,7 +6927,7 @@
         <v>73</v>
       </c>
     </row>
-    <row r="46" spans="1:10">
+    <row r="46" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A46" s="1">
         <v>44</v>
       </c>
@@ -7571,7 +6959,7 @@
         <v>73</v>
       </c>
     </row>
-    <row r="47" spans="1:10">
+    <row r="47" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A47" s="1">
         <v>45</v>
       </c>
@@ -7603,7 +6991,7 @@
         <v>73</v>
       </c>
     </row>
-    <row r="48" spans="1:10">
+    <row r="48" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A48" s="1">
         <v>46</v>
       </c>
@@ -7635,7 +7023,7 @@
         <v>73</v>
       </c>
     </row>
-    <row r="49" spans="1:10">
+    <row r="49" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A49" s="1">
         <v>47</v>
       </c>
@@ -7667,7 +7055,7 @@
         <v>73</v>
       </c>
     </row>
-    <row r="50" spans="1:10">
+    <row r="50" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A50" s="1">
         <v>48</v>
       </c>
@@ -7699,7 +7087,7 @@
         <v>73</v>
       </c>
     </row>
-    <row r="51" spans="1:10">
+    <row r="51" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A51" s="1">
         <v>49</v>
       </c>
@@ -7731,7 +7119,7 @@
         <v>73</v>
       </c>
     </row>
-    <row r="52" spans="1:10">
+    <row r="52" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A52" s="1">
         <v>50</v>
       </c>
@@ -7763,7 +7151,7 @@
         <v>73</v>
       </c>
     </row>
-    <row r="53" spans="1:10">
+    <row r="53" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A53" s="1">
         <v>51</v>
       </c>
@@ -7795,7 +7183,7 @@
         <v>73</v>
       </c>
     </row>
-    <row r="54" spans="1:10">
+    <row r="54" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A54" s="1">
         <v>52</v>
       </c>
@@ -7827,7 +7215,7 @@
         <v>73</v>
       </c>
     </row>
-    <row r="55" spans="1:10">
+    <row r="55" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A55" s="1">
         <v>53</v>
       </c>
@@ -7859,7 +7247,7 @@
         <v>73</v>
       </c>
     </row>
-    <row r="56" spans="1:10">
+    <row r="56" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A56" s="1">
         <v>54</v>
       </c>
@@ -7891,7 +7279,7 @@
         <v>73</v>
       </c>
     </row>
-    <row r="57" spans="1:10">
+    <row r="57" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A57" s="1">
         <v>55</v>
       </c>
@@ -7923,7 +7311,7 @@
         <v>73</v>
       </c>
     </row>
-    <row r="58" spans="1:10">
+    <row r="58" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A58" s="1">
         <v>56</v>
       </c>
@@ -7955,7 +7343,7 @@
         <v>73</v>
       </c>
     </row>
-    <row r="59" spans="1:10">
+    <row r="59" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A59" s="1">
         <v>57</v>
       </c>
@@ -7987,7 +7375,7 @@
         <v>73</v>
       </c>
     </row>
-    <row r="60" spans="1:10">
+    <row r="60" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A60" s="1">
         <v>58</v>
       </c>
@@ -8019,7 +7407,7 @@
         <v>73</v>
       </c>
     </row>
-    <row r="61" spans="1:10">
+    <row r="61" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A61" s="1">
         <v>59</v>
       </c>
@@ -8051,7 +7439,7 @@
         <v>73</v>
       </c>
     </row>
-    <row r="62" spans="1:10">
+    <row r="62" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A62" s="1">
         <v>60</v>
       </c>
@@ -8083,7 +7471,7 @@
         <v>73</v>
       </c>
     </row>
-    <row r="63" spans="1:10">
+    <row r="63" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A63" s="1">
         <v>61</v>
       </c>
@@ -8115,7 +7503,7 @@
         <v>73</v>
       </c>
     </row>
-    <row r="64" spans="1:10">
+    <row r="64" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A64" s="1">
         <v>62</v>
       </c>
@@ -8147,7 +7535,7 @@
         <v>73</v>
       </c>
     </row>
-    <row r="65" spans="1:10">
+    <row r="65" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A65" s="1">
         <v>63</v>
       </c>
@@ -8179,7 +7567,7 @@
         <v>73</v>
       </c>
     </row>
-    <row r="66" spans="1:10">
+    <row r="66" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A66" s="1">
         <v>64</v>
       </c>
@@ -8211,7 +7599,7 @@
         <v>73</v>
       </c>
     </row>
-    <row r="67" spans="1:10">
+    <row r="67" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A67" s="1">
         <v>65</v>
       </c>
@@ -8243,7 +7631,7 @@
         <v>73</v>
       </c>
     </row>
-    <row r="68" spans="1:10">
+    <row r="68" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A68" s="1">
         <v>66</v>
       </c>
@@ -8275,7 +7663,7 @@
         <v>73</v>
       </c>
     </row>
-    <row r="69" spans="1:10">
+    <row r="69" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A69" s="1">
         <v>67</v>
       </c>
@@ -8307,7 +7695,7 @@
         <v>73</v>
       </c>
     </row>
-    <row r="70" spans="1:10">
+    <row r="70" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A70" s="1">
         <v>68</v>
       </c>
@@ -8339,7 +7727,7 @@
         <v>73</v>
       </c>
     </row>
-    <row r="71" spans="1:10">
+    <row r="71" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A71" s="1">
         <v>69</v>
       </c>
@@ -8371,7 +7759,7 @@
         <v>73</v>
       </c>
     </row>
-    <row r="72" spans="1:10">
+    <row r="72" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A72" s="1">
         <v>70</v>
       </c>
@@ -8403,7 +7791,7 @@
         <v>73</v>
       </c>
     </row>
-    <row r="73" spans="1:10">
+    <row r="73" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A73" s="1">
         <v>71</v>
       </c>
@@ -8435,7 +7823,7 @@
         <v>73</v>
       </c>
     </row>
-    <row r="74" spans="1:10">
+    <row r="74" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A74" s="1">
         <v>72</v>
       </c>
@@ -8467,7 +7855,7 @@
         <v>73</v>
       </c>
     </row>
-    <row r="75" spans="1:10">
+    <row r="75" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A75" s="1">
         <v>73</v>
       </c>
@@ -8499,7 +7887,7 @@
         <v>73</v>
       </c>
     </row>
-    <row r="76" spans="1:10">
+    <row r="76" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A76" s="1">
         <v>74</v>
       </c>
@@ -8531,7 +7919,7 @@
         <v>73</v>
       </c>
     </row>
-    <row r="77" spans="1:10">
+    <row r="77" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A77" s="1">
         <v>75</v>
       </c>
@@ -8563,7 +7951,7 @@
         <v>73</v>
       </c>
     </row>
-    <row r="78" spans="1:10">
+    <row r="78" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A78" s="1">
         <v>76</v>
       </c>
@@ -8595,7 +7983,7 @@
         <v>73</v>
       </c>
     </row>
-    <row r="79" spans="1:10">
+    <row r="79" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A79" s="1">
         <v>77</v>
       </c>
@@ -8627,7 +8015,7 @@
         <v>73</v>
       </c>
     </row>
-    <row r="80" spans="1:10">
+    <row r="80" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A80" s="1">
         <v>78</v>
       </c>
@@ -8659,7 +8047,7 @@
         <v>73</v>
       </c>
     </row>
-    <row r="81" spans="1:10">
+    <row r="81" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A81" s="1">
         <v>79</v>
       </c>
@@ -8691,7 +8079,7 @@
         <v>73</v>
       </c>
     </row>
-    <row r="82" spans="1:10">
+    <row r="82" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A82" s="1">
         <v>80</v>
       </c>
@@ -8723,7 +8111,7 @@
         <v>73</v>
       </c>
     </row>
-    <row r="83" spans="1:10">
+    <row r="83" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A83" s="1">
         <v>81</v>
       </c>
@@ -8755,7 +8143,7 @@
         <v>73</v>
       </c>
     </row>
-    <row r="84" spans="1:10">
+    <row r="84" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A84" s="1">
         <v>82</v>
       </c>
@@ -8787,7 +8175,7 @@
         <v>73</v>
       </c>
     </row>
-    <row r="85" spans="1:10">
+    <row r="85" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A85" s="1">
         <v>83</v>
       </c>
@@ -8819,7 +8207,7 @@
         <v>73</v>
       </c>
     </row>
-    <row r="86" spans="1:10">
+    <row r="86" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A86" s="1">
         <v>84</v>
       </c>
@@ -8851,7 +8239,7 @@
         <v>73</v>
       </c>
     </row>
-    <row r="87" spans="1:10">
+    <row r="87" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A87" s="1">
         <v>85</v>
       </c>
@@ -8883,7 +8271,7 @@
         <v>73</v>
       </c>
     </row>
-    <row r="88" spans="1:10">
+    <row r="88" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A88" s="1">
         <v>86</v>
       </c>
@@ -8915,7 +8303,7 @@
         <v>73</v>
       </c>
     </row>
-    <row r="89" spans="1:10">
+    <row r="89" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A89" s="1">
         <v>87</v>
       </c>
@@ -8947,7 +8335,7 @@
         <v>73</v>
       </c>
     </row>
-    <row r="90" spans="1:10">
+    <row r="90" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A90" s="1">
         <v>88</v>
       </c>
@@ -8979,7 +8367,7 @@
         <v>73</v>
       </c>
     </row>
-    <row r="91" spans="1:10">
+    <row r="91" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A91" s="1">
         <v>89</v>
       </c>
@@ -9011,7 +8399,7 @@
         <v>73</v>
       </c>
     </row>
-    <row r="92" spans="1:10">
+    <row r="92" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A92" s="1">
         <v>90</v>
       </c>
@@ -9043,7 +8431,7 @@
         <v>73</v>
       </c>
     </row>
-    <row r="93" spans="1:10">
+    <row r="93" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A93" s="1">
         <v>91</v>
       </c>
@@ -9075,7 +8463,7 @@
         <v>73</v>
       </c>
     </row>
-    <row r="94" spans="1:10">
+    <row r="94" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A94" s="1">
         <v>92</v>
       </c>
@@ -9107,7 +8495,7 @@
         <v>73</v>
       </c>
     </row>
-    <row r="95" spans="1:10">
+    <row r="95" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A95" s="1">
         <v>93</v>
       </c>
@@ -9139,7 +8527,7 @@
         <v>73</v>
       </c>
     </row>
-    <row r="96" spans="1:10">
+    <row r="96" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A96" s="1">
         <v>94</v>
       </c>
@@ -9171,7 +8559,7 @@
         <v>73</v>
       </c>
     </row>
-    <row r="97" spans="1:10">
+    <row r="97" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A97" s="1">
         <v>95</v>
       </c>
@@ -9203,7 +8591,7 @@
         <v>73</v>
       </c>
     </row>
-    <row r="98" spans="1:10">
+    <row r="98" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A98" s="1">
         <v>96</v>
       </c>
@@ -9235,7 +8623,7 @@
         <v>73</v>
       </c>
     </row>
-    <row r="99" spans="1:10">
+    <row r="99" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A99" s="1">
         <v>97</v>
       </c>
@@ -9267,7 +8655,7 @@
         <v>73</v>
       </c>
     </row>
-    <row r="100" spans="1:10">
+    <row r="100" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A100" s="1">
         <v>98</v>
       </c>
@@ -9299,7 +8687,7 @@
         <v>73</v>
       </c>
     </row>
-    <row r="101" spans="1:10">
+    <row r="101" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A101" s="1">
         <v>99</v>
       </c>
@@ -9331,7 +8719,7 @@
         <v>73</v>
       </c>
     </row>
-    <row r="102" spans="1:10">
+    <row r="102" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A102" s="1">
         <v>100</v>
       </c>
@@ -9363,7 +8751,7 @@
         <v>73</v>
       </c>
     </row>
-    <row r="103" spans="1:10">
+    <row r="103" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A103" s="1">
         <v>101</v>
       </c>
@@ -9396,7 +8784,7 @@
       </c>
     </row>
   </sheetData>
-  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.511805555555556" footer="0.511805555555556"/>
-  <headerFooter/>
+  <phoneticPr fontId="1" type="noConversion"/>
+  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.51180555555555596" footer="0.51180555555555596"/>
 </worksheet>
 </file>